--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_22_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_22_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5318430.727063375</v>
+        <v>-5318661.785348634</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244259.5951960806</v>
+        <v>244259.5951960792</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3044959808848128</v>
+        <v>0.3044959808850194</v>
       </c>
       <c r="G11" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="H11" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1397,22 +1397,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="M11" t="n">
-        <v>1.024342858826969</v>
+        <v>1.024342858827026</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.011969354812468</v>
+        <v>2.01196935481272</v>
       </c>
       <c r="P11" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.19495735886386</v>
+        <v>1.194957358863917</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>2.560932828027262</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3044959808848128</v>
+        <v>0.3044959808850748</v>
       </c>
       <c r="G14" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="H14" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="M14" t="n">
         <v>1.024342858826969</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2.01196935481272</v>
+        <v>2.011969354812663</v>
       </c>
       <c r="P14" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="Q14" t="n">
         <v>1.19495735886386</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.560932828027262</v>
+        <v>2.560932828027205</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
     </row>
     <row r="15">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.16585249092776</v>
+        <v>16.16585249092788</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10.2349470219292</v>
+        <v>10.23494702192932</v>
       </c>
       <c r="F17" t="n">
-        <v>16.16585249092776</v>
+        <v>16.16585249092788</v>
       </c>
       <c r="G17" t="n">
-        <v>16.16585249092776</v>
+        <v>16.16585249092788</v>
       </c>
       <c r="H17" t="n">
-        <v>16.16585249092776</v>
+        <v>16.16585249092788</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.21810304482756</v>
+        <v>10.2181030448276</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.593705642867576</v>
+        <v>5.593705642867772</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.16585249092776</v>
+        <v>16.16585249092788</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.24355089463069</v>
+        <v>15.24355089463086</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.312645425632127</v>
+        <v>9.312645425632297</v>
       </c>
       <c r="F20" t="n">
-        <v>23.23863305101732</v>
+        <v>23.23863305101621</v>
       </c>
       <c r="G20" t="n">
-        <v>23.23863305101732</v>
+        <v>23.23863305101621</v>
       </c>
       <c r="H20" t="n">
-        <v>23.23863305101732</v>
+        <v>23.23863305101621</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>9.295801448530483</v>
+        <v>9.29580144853071</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.671404046570501</v>
+        <v>4.671404046570699</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>23.23863305101732</v>
+        <v>23.23863305101621</v>
       </c>
     </row>
     <row r="21">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.34629113897961</v>
+        <v>14.3462911389795</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.415385669981049</v>
+        <v>8.415385669980935</v>
       </c>
       <c r="F23" t="n">
-        <v>31.186268949858</v>
+        <v>31.18626894985789</v>
       </c>
       <c r="G23" t="n">
-        <v>31.186268949858</v>
+        <v>31.18626894985789</v>
       </c>
       <c r="H23" t="n">
-        <v>26.91870214472982</v>
+        <v>26.91870214472971</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.39854169287946</v>
+        <v>8.398541692879348</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.77414429091943</v>
+        <v>3.774144290919367</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.186268949858</v>
+        <v>31.18626894985789</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.34629113897961</v>
+        <v>14.3462911389795</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.415385669981049</v>
+        <v>8.415385669980935</v>
       </c>
       <c r="F26" t="n">
-        <v>31.186268949858</v>
+        <v>31.18626894985789</v>
       </c>
       <c r="G26" t="n">
-        <v>31.186268949858</v>
+        <v>31.18626894985789</v>
       </c>
       <c r="H26" t="n">
-        <v>26.91870214472982</v>
+        <v>26.91870214472971</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.398541692879405</v>
+        <v>8.398541692879348</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>3.774144290919423</v>
+        <v>3.774144290919397</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.186268949858</v>
+        <v>31.18626894985789</v>
       </c>
     </row>
     <row r="27">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13.91336731138881</v>
+        <v>13.91336731138864</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.982461842390251</v>
+        <v>7.98246184239008</v>
       </c>
       <c r="F29" t="n">
-        <v>38.2590495099471</v>
+        <v>38.25904950994958</v>
       </c>
       <c r="G29" t="n">
-        <v>38.2590495099471</v>
+        <v>38.25904950994958</v>
       </c>
       <c r="H29" t="n">
-        <v>26.48577831713902</v>
+        <v>26.48577831713885</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>7.965617865288704</v>
+        <v>7.965617865288494</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.341220463328625</v>
+        <v>3.341220463328511</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.75334512226721</v>
+        <v>30.75334512226704</v>
       </c>
     </row>
     <row r="30">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.11074322327158</v>
+        <v>13.11074322327147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.179837754273024</v>
+        <v>7.17983775427291</v>
       </c>
       <c r="F32" t="n">
-        <v>51.37171202863084</v>
+        <v>51.37171202863072</v>
       </c>
       <c r="G32" t="n">
-        <v>51.37171202863084</v>
+        <v>51.37171202863072</v>
       </c>
       <c r="H32" t="n">
-        <v>25.6831542290218</v>
+        <v>25.68315422902168</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.16299377717138</v>
+        <v>7.162993777171323</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.538596375211398</v>
+        <v>2.538596375211426</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.95072103414998</v>
+        <v>29.95072103414986</v>
       </c>
     </row>
     <row r="33">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.11074322327158</v>
+        <v>13.11074322327147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.179837754273024</v>
+        <v>7.17983775427291</v>
       </c>
       <c r="F35" t="n">
-        <v>51.37171202863084</v>
+        <v>51.37171202863072</v>
       </c>
       <c r="G35" t="n">
-        <v>51.37171202863084</v>
+        <v>51.37171202863072</v>
       </c>
       <c r="H35" t="n">
-        <v>25.6831542290218</v>
+        <v>25.68315422902168</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.16299377717138</v>
+        <v>7.162993777171266</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.538596375211398</v>
+        <v>2.538596375211284</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.95072103414998</v>
+        <v>29.95072103414986</v>
       </c>
     </row>
     <row r="36">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.11074322327153</v>
+        <v>13.11074322327158</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7.179837754272967</v>
+        <v>7.179837754273024</v>
       </c>
       <c r="F38" t="n">
-        <v>51.37171202863084</v>
+        <v>51.37171202863072</v>
       </c>
       <c r="G38" t="n">
-        <v>51.37171202863084</v>
+        <v>51.37171202863072</v>
       </c>
       <c r="H38" t="n">
-        <v>25.68315422902174</v>
+        <v>25.6831542290218</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>7.162993777171323</v>
+        <v>7.162993777171437</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.538596375212265</v>
+        <v>2.538596375211455</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.95072103414992</v>
+        <v>29.95072103414998</v>
       </c>
     </row>
     <row r="39">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13.89170033197257</v>
+        <v>13.89170033197252</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>7.960794862974012</v>
+        <v>7.960794862973955</v>
       </c>
       <c r="F41" t="n">
-        <v>38.61302815709912</v>
+        <v>38.61302815709915</v>
       </c>
       <c r="G41" t="n">
-        <v>38.61302815709912</v>
+        <v>38.61302815709915</v>
       </c>
       <c r="H41" t="n">
-        <v>26.46411133772278</v>
+        <v>26.46411133772273</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.319553483912413</v>
+        <v>3.319553483912387</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>30.73167814285097</v>
+        <v>30.73167814285091</v>
       </c>
     </row>
     <row r="42">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.32462415956343</v>
+        <v>14.32462415956337</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.393718690564867</v>
+        <v>8.39371869056481</v>
       </c>
       <c r="F44" t="n">
-        <v>31.5402475970096</v>
+        <v>31.54024759701083</v>
       </c>
       <c r="G44" t="n">
-        <v>31.5402475970096</v>
+        <v>31.54024759701083</v>
       </c>
       <c r="H44" t="n">
-        <v>26.89703516531364</v>
+        <v>26.89703516531358</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.752477311503205</v>
+        <v>3.752477311503372</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.16460197044182</v>
+        <v>31.16460197044177</v>
       </c>
     </row>
     <row r="45">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.158704713120233</v>
+        <v>4.158704713120718</v>
       </c>
       <c r="C11" t="n">
-        <v>7.531801646322357</v>
+        <v>7.531801646323084</v>
       </c>
       <c r="D11" t="n">
-        <v>10.90489857952448</v>
+        <v>10.90489857952545</v>
       </c>
       <c r="E11" t="n">
-        <v>7.463314115488032</v>
+        <v>7.463314115488754</v>
       </c>
       <c r="F11" t="n">
-        <v>7.155742417624585</v>
+        <v>7.155742417625098</v>
       </c>
       <c r="G11" t="n">
-        <v>3.714157953588136</v>
+        <v>3.714157953588402</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="I11" t="n">
-        <v>3.64567042275381</v>
+        <v>3.645670422754073</v>
       </c>
       <c r="J11" t="n">
-        <v>7.018767355955934</v>
+        <v>7.018767355956438</v>
       </c>
       <c r="K11" t="n">
-        <v>10.39186428915806</v>
+        <v>10.3918642891588</v>
       </c>
       <c r="L11" t="n">
-        <v>6.950279825121597</v>
+        <v>6.950279825122305</v>
       </c>
       <c r="M11" t="n">
-        <v>5.915590068730719</v>
+        <v>5.915590068731369</v>
       </c>
       <c r="N11" t="n">
-        <v>6.953477866392507</v>
+        <v>6.953477866393102</v>
       </c>
       <c r="O11" t="n">
-        <v>4.921185588804156</v>
+        <v>4.921185588804495</v>
       </c>
       <c r="P11" t="n">
-        <v>1.479601124767707</v>
+        <v>1.479601124767784</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="R11" t="n">
-        <v>1.144330250296751</v>
+        <v>1.14433025029677</v>
       </c>
       <c r="S11" t="n">
-        <v>4.517427183498697</v>
+        <v>4.517427183499136</v>
       </c>
       <c r="T11" t="n">
-        <v>4.517427183498697</v>
+        <v>7.890524116701501</v>
       </c>
       <c r="U11" t="n">
-        <v>7.890524116700821</v>
+        <v>10.25557754438295</v>
       </c>
       <c r="V11" t="n">
-        <v>11.26362104990294</v>
+        <v>10.25557754438295</v>
       </c>
       <c r="W11" t="n">
-        <v>13.62867447758434</v>
+        <v>13.62867447758532</v>
       </c>
       <c r="X11" t="n">
-        <v>11.04187364119313</v>
+        <v>11.04187364119411</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.600289177156682</v>
+        <v>7.600289177157414</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="U12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.158704713120233</v>
+        <v>4.158704713120775</v>
       </c>
       <c r="C14" t="n">
-        <v>7.531801646322357</v>
+        <v>7.531801646323141</v>
       </c>
       <c r="D14" t="n">
-        <v>10.90489857952448</v>
+        <v>10.90489857952551</v>
       </c>
       <c r="E14" t="n">
-        <v>7.463314115488032</v>
+        <v>7.46331411548881</v>
       </c>
       <c r="F14" t="n">
-        <v>7.155742417624585</v>
+        <v>7.155742417625098</v>
       </c>
       <c r="G14" t="n">
-        <v>3.714157953588136</v>
+        <v>3.714157953588402</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="I14" t="n">
-        <v>3.64567042275381</v>
+        <v>3.645670422753665</v>
       </c>
       <c r="J14" t="n">
-        <v>7.018767355955913</v>
+        <v>7.01876735595603</v>
       </c>
       <c r="K14" t="n">
-        <v>10.39186428915849</v>
+        <v>10.39186428915839</v>
       </c>
       <c r="L14" t="n">
-        <v>6.950279825121949</v>
+        <v>6.950279825122063</v>
       </c>
       <c r="M14" t="n">
-        <v>5.915590068731071</v>
+        <v>5.915590068731185</v>
       </c>
       <c r="N14" t="n">
-        <v>6.953477866392839</v>
+        <v>6.953477866392974</v>
       </c>
       <c r="O14" t="n">
-        <v>4.921185588804232</v>
+        <v>4.921185588804422</v>
       </c>
       <c r="P14" t="n">
-        <v>1.479601124767707</v>
+        <v>1.479601124767727</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2725734895516868</v>
+        <v>1.144330250296832</v>
       </c>
       <c r="S14" t="n">
-        <v>3.509383677977965</v>
+        <v>4.517427183499137</v>
       </c>
       <c r="T14" t="n">
-        <v>6.882480611180089</v>
+        <v>4.517427183499137</v>
       </c>
       <c r="U14" t="n">
-        <v>10.25557754438221</v>
+        <v>7.890524116701503</v>
       </c>
       <c r="V14" t="n">
-        <v>13.62867447758434</v>
+        <v>11.26362104990387</v>
       </c>
       <c r="W14" t="n">
-        <v>13.62867447758434</v>
+        <v>13.62867447758532</v>
       </c>
       <c r="X14" t="n">
-        <v>11.04187364119313</v>
+        <v>11.04187364119417</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.600289177156682</v>
+        <v>7.600289177157471</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="V15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="V16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="X16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2725734895516868</v>
+        <v>0.2725734895517063</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28.61064238310845</v>
+        <v>28.61064238310868</v>
       </c>
       <c r="C17" t="n">
-        <v>44.61483634912693</v>
+        <v>44.61483634912728</v>
       </c>
       <c r="D17" t="n">
-        <v>60.61903031514542</v>
+        <v>60.61903031514588</v>
       </c>
       <c r="E17" t="n">
-        <v>50.2806999899644</v>
+        <v>50.28069998996476</v>
       </c>
       <c r="F17" t="n">
-        <v>33.95155605973434</v>
+        <v>33.95155605973459</v>
       </c>
       <c r="G17" t="n">
-        <v>17.62241212950428</v>
+        <v>17.62241212950441</v>
       </c>
       <c r="H17" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="I17" t="n">
-        <v>9.002286584181489</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="J17" t="n">
-        <v>25.00648055019682</v>
+        <v>14.14051382306201</v>
       </c>
       <c r="K17" t="n">
-        <v>25.00648055019682</v>
+        <v>14.14051382306201</v>
       </c>
       <c r="L17" t="n">
-        <v>14.68516434330029</v>
+        <v>3.819197616165438</v>
       </c>
       <c r="M17" t="n">
-        <v>16.73617861040198</v>
+        <v>5.870211883266982</v>
       </c>
       <c r="N17" t="n">
-        <v>16.73617861040198</v>
+        <v>5.870211883266982</v>
       </c>
       <c r="O17" t="n">
-        <v>17.80944264647782</v>
+        <v>6.943475919342688</v>
       </c>
       <c r="P17" t="n">
-        <v>12.15923492640947</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.04134083847466</v>
+        <v>3.175374111339248</v>
       </c>
       <c r="R17" t="n">
-        <v>17.97821129656014</v>
+        <v>7.112244569424611</v>
       </c>
       <c r="S17" t="n">
-        <v>33.98240526257862</v>
+        <v>7.112244569424611</v>
       </c>
       <c r="T17" t="n">
-        <v>49.98659922859711</v>
+        <v>23.11643853544321</v>
       </c>
       <c r="U17" t="n">
-        <v>60.73914004597516</v>
+        <v>28.73075211393719</v>
       </c>
       <c r="V17" t="n">
-        <v>60.73914004597516</v>
+        <v>44.73494607995578</v>
       </c>
       <c r="W17" t="n">
-        <v>60.73914004597516</v>
+        <v>60.73914004597438</v>
       </c>
       <c r="X17" t="n">
-        <v>61.26893024356858</v>
+        <v>61.26893024356767</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.93978631333852</v>
+        <v>44.93978631333886</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="C18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="D18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="E18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="F18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="G18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="H18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="I18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="J18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="K18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="L18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="M18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="N18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="O18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="P18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="R18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="S18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="T18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="U18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="V18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="W18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="X18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="C19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="D19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="E19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="F19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="G19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="H19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="I19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="J19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="K19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="L19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="M19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="N19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="O19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="P19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="R19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="S19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="T19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="U19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="V19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="W19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="X19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.293268199274221</v>
+        <v>1.29326819927423</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.08363932967734</v>
+        <v>54.08363932967387</v>
       </c>
       <c r="C20" t="n">
-        <v>58.67965662931538</v>
+        <v>74.33734494304815</v>
       </c>
       <c r="D20" t="n">
-        <v>81.68590334982252</v>
+        <v>81.68590334981911</v>
       </c>
       <c r="E20" t="n">
-        <v>72.27919079867932</v>
+        <v>72.27919079867587</v>
       </c>
       <c r="F20" t="n">
-        <v>48.80582408048001</v>
+        <v>48.80582408047768</v>
       </c>
       <c r="G20" t="n">
-        <v>25.3324573622807</v>
+        <v>25.33245736227949</v>
       </c>
       <c r="H20" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="I20" t="n">
-        <v>10.48118760932268</v>
+        <v>10.48118760932249</v>
       </c>
       <c r="J20" t="n">
-        <v>10.48118760932268</v>
+        <v>33.48743432982874</v>
       </c>
       <c r="K20" t="n">
-        <v>13.00328617553556</v>
+        <v>33.48743432982874</v>
       </c>
       <c r="L20" t="n">
-        <v>3.613587742676486</v>
+        <v>24.09773589696944</v>
       </c>
       <c r="M20" t="n">
-        <v>6.577680590112196</v>
+        <v>27.06182874440503</v>
       </c>
       <c r="N20" t="n">
-        <v>6.577680590112196</v>
+        <v>32.07790881974111</v>
       </c>
       <c r="O20" t="n">
-        <v>6.577680590112196</v>
+        <v>32.07790881974111</v>
       </c>
       <c r="P20" t="n">
-        <v>1.859090644081385</v>
+        <v>27.3593188737101</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.654275136480685</v>
+        <v>27.3593188737101</v>
       </c>
       <c r="R20" t="n">
-        <v>4.654275136480685</v>
+        <v>32.20926791212953</v>
       </c>
       <c r="S20" t="n">
-        <v>27.66052185698783</v>
+        <v>55.2155146326353</v>
       </c>
       <c r="T20" t="n">
-        <v>27.66052185698783</v>
+        <v>78.22176135314135</v>
       </c>
       <c r="U20" t="n">
-        <v>45.49916998512748</v>
+        <v>78.22176135314135</v>
       </c>
       <c r="V20" t="n">
-        <v>68.50541670563462</v>
+        <v>78.22176135314135</v>
       </c>
       <c r="W20" t="n">
-        <v>91.51166342614175</v>
+        <v>92.95453220406483</v>
       </c>
       <c r="X20" t="n">
-        <v>92.95453220406927</v>
+        <v>92.95453220406483</v>
       </c>
       <c r="Y20" t="n">
-        <v>69.48116548586995</v>
+        <v>69.48116548586665</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="C21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="D21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="E21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="F21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="G21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="H21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="I21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="J21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="K21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="L21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="M21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="N21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="O21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="P21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="R21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="S21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="T21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="U21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="V21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="W21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="X21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="C22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="D22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="E22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="F22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="G22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="H22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="I22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="J22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="K22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="L22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="M22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="N22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="O22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="P22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="R22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="S22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="T22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="U22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="V22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="W22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="X22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.859090644081385</v>
+        <v>1.859090644081297</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>70.31405658333317</v>
+        <v>78.6990379122971</v>
       </c>
       <c r="C23" t="n">
-        <v>70.31405658333317</v>
+        <v>78.6990379122971</v>
       </c>
       <c r="D23" t="n">
-        <v>101.1884628436926</v>
+        <v>101.1884628436921</v>
       </c>
       <c r="E23" t="n">
-        <v>92.68807327805517</v>
+        <v>92.68807327805483</v>
       </c>
       <c r="F23" t="n">
-        <v>61.18679151052184</v>
+        <v>61.1867915105216</v>
       </c>
       <c r="G23" t="n">
-        <v>29.68550974298846</v>
+        <v>29.68550974298834</v>
       </c>
       <c r="H23" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="I23" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="J23" t="n">
-        <v>23.59930920870736</v>
+        <v>33.36930777634788</v>
       </c>
       <c r="K23" t="n">
-        <v>34.57216533130791</v>
+        <v>33.36930777634788</v>
       </c>
       <c r="L23" t="n">
-        <v>26.08878988395492</v>
+        <v>24.885932328995</v>
       </c>
       <c r="M23" t="n">
-        <v>26.08878988395492</v>
+        <v>24.885932328995</v>
       </c>
       <c r="N23" t="n">
-        <v>26.08878988395492</v>
+        <v>30.79029956242593</v>
       </c>
       <c r="O23" t="n">
-        <v>26.08878988395492</v>
+        <v>30.79029956242593</v>
       </c>
       <c r="P23" t="n">
-        <v>22.27652292343025</v>
+        <v>26.97803260190132</v>
       </c>
       <c r="Q23" t="n">
-        <v>22.27652292343025</v>
+        <v>30.66150425239524</v>
       </c>
       <c r="R23" t="n">
-        <v>28.01475911994439</v>
+        <v>36.3997404489095</v>
       </c>
       <c r="S23" t="n">
-        <v>28.01475911994439</v>
+        <v>67.27414670926834</v>
       </c>
       <c r="T23" t="n">
-        <v>28.01475911994439</v>
+        <v>67.27414670926834</v>
       </c>
       <c r="U23" t="n">
-        <v>58.88916538030463</v>
+        <v>98.14855296962764</v>
       </c>
       <c r="V23" t="n">
-        <v>89.76357164066405</v>
+        <v>98.14855296962764</v>
       </c>
       <c r="W23" t="n">
-        <v>116.306541521553</v>
+        <v>124.6915228505167</v>
       </c>
       <c r="X23" t="n">
-        <v>116.306541521553</v>
+        <v>124.6915228505167</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.80525975401967</v>
+        <v>93.19024108298349</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="C24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="D24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="E24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="F24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="G24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="H24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="I24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="J24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="K24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="L24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="M24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="N24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="O24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="P24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="R24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="S24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="T24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="U24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="V24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="W24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="X24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="C25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="D25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="E25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="F25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="G25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="H25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="I25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="J25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="K25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="L25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="M25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="N25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="O25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="P25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="R25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="S25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="T25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="U25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="V25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="W25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="X25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>50.80882656589267</v>
+        <v>78.75259086121194</v>
       </c>
       <c r="C26" t="n">
-        <v>70.31405658333324</v>
+        <v>99.89458363268096</v>
       </c>
       <c r="D26" t="n">
-        <v>101.1884628436926</v>
+        <v>101.1884628436922</v>
       </c>
       <c r="E26" t="n">
-        <v>92.68807327805514</v>
+        <v>92.68807327805486</v>
       </c>
       <c r="F26" t="n">
-        <v>61.1867915105218</v>
+        <v>61.18679151052163</v>
       </c>
       <c r="G26" t="n">
-        <v>29.68550974298846</v>
+        <v>29.68550974298834</v>
       </c>
       <c r="H26" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="I26" t="n">
-        <v>12.00528563932449</v>
+        <v>12.00528563932462</v>
       </c>
       <c r="J26" t="n">
-        <v>12.00528563932449</v>
+        <v>12.00528563932462</v>
       </c>
       <c r="K26" t="n">
-        <v>12.00528563932449</v>
+        <v>22.97814176192529</v>
       </c>
       <c r="L26" t="n">
-        <v>3.521910191971559</v>
+        <v>14.49476631457242</v>
       </c>
       <c r="M26" t="n">
-        <v>3.521910191971559</v>
+        <v>14.49476631457242</v>
       </c>
       <c r="N26" t="n">
-        <v>6.30716847651331</v>
+        <v>14.49476631457242</v>
       </c>
       <c r="O26" t="n">
-        <v>6.30716847651331</v>
+        <v>17.36939608907702</v>
       </c>
       <c r="P26" t="n">
-        <v>2.49490151598864</v>
+        <v>13.55712912855237</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.178373166482626</v>
+        <v>17.24060077904629</v>
       </c>
       <c r="R26" t="n">
-        <v>6.178373166482626</v>
+        <v>22.97883697556055</v>
       </c>
       <c r="S26" t="n">
-        <v>37.05277942684205</v>
+        <v>53.85324323591986</v>
       </c>
       <c r="T26" t="n">
-        <v>37.05277942684205</v>
+        <v>53.85324323591986</v>
       </c>
       <c r="U26" t="n">
-        <v>37.05277942684205</v>
+        <v>67.32769965818328</v>
       </c>
       <c r="V26" t="n">
-        <v>67.92718568720147</v>
+        <v>98.20210591854249</v>
       </c>
       <c r="W26" t="n">
-        <v>94.47015556809043</v>
+        <v>124.7450757994316</v>
       </c>
       <c r="X26" t="n">
-        <v>96.8013115041125</v>
+        <v>124.7450757994316</v>
       </c>
       <c r="Y26" t="n">
-        <v>65.30002973657915</v>
+        <v>93.24379403189833</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="C27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="D27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="E27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="F27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="G27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="H27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="I27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="J27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="K27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="L27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="M27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="N27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="O27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="P27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="R27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="S27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="T27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="U27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="V27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="W27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="X27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="C28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="D28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="E28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="F28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="G28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="H28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="I28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="J28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="K28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="L28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="M28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="N28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="O28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="P28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="R28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="S28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="T28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="U28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="V28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="W28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="X28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.49490151598864</v>
+        <v>2.494901515988631</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>67.53913187871214</v>
+        <v>95.33384819266148</v>
       </c>
       <c r="C29" t="n">
-        <v>77.92878942072608</v>
+        <v>115.1681372733496</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1681372733447</v>
+        <v>115.1681372733496</v>
       </c>
       <c r="E29" t="n">
-        <v>107.1050445032536</v>
+        <v>107.1050445032586</v>
       </c>
       <c r="F29" t="n">
-        <v>68.45953994775147</v>
+        <v>68.45953994775398</v>
       </c>
       <c r="G29" t="n">
-        <v>29.81403539224933</v>
+        <v>29.81403539224935</v>
       </c>
       <c r="H29" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="I29" t="n">
-        <v>3.060723960795768</v>
+        <v>12.99970267344701</v>
       </c>
       <c r="J29" t="n">
-        <v>3.060723960795768</v>
+        <v>12.99970267344701</v>
       </c>
       <c r="K29" t="n">
-        <v>14.46217467271126</v>
+        <v>24.40115338536262</v>
       </c>
       <c r="L29" t="n">
-        <v>6.41609602090449</v>
+        <v>16.35507473355606</v>
       </c>
       <c r="M29" t="n">
-        <v>6.435694125774177</v>
+        <v>20.63604932840148</v>
       </c>
       <c r="N29" t="n">
-        <v>6.435694125774177</v>
+        <v>26.96901115114733</v>
       </c>
       <c r="O29" t="n">
-        <v>6.435694125774177</v>
+        <v>30.27223551496688</v>
       </c>
       <c r="P29" t="n">
-        <v>3.060723960795768</v>
+        <v>26.89726534998859</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.17279020060452</v>
+        <v>31.00933158979883</v>
       </c>
       <c r="R29" t="n">
-        <v>7.17279020060452</v>
+        <v>37.17616237562807</v>
       </c>
       <c r="S29" t="n">
-        <v>45.04924921545214</v>
+        <v>75.05262139047838</v>
       </c>
       <c r="T29" t="n">
-        <v>45.04924921545214</v>
+        <v>75.05262139047838</v>
       </c>
       <c r="U29" t="n">
-        <v>82.92570823029976</v>
+        <v>75.05262139047838</v>
       </c>
       <c r="V29" t="n">
-        <v>82.92570823029976</v>
+        <v>110.7204245442475</v>
       </c>
       <c r="W29" t="n">
-        <v>109.8972727005036</v>
+        <v>137.6919890144515</v>
       </c>
       <c r="X29" t="n">
-        <v>112.6570232258394</v>
+        <v>140.4517395397887</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.59303825385237</v>
+        <v>109.3877545678015</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="C30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="D30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="E30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="F30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="G30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="H30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="I30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="J30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="K30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="L30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="M30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="N30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="O30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="P30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="R30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="S30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="T30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="U30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="V30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="W30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="X30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="C31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="D31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="E31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="F31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="G31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="H31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="I31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="J31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="K31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="L31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="M31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="N31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="O31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="P31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="R31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="S31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="T31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="U31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="V31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="W31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="X31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.060723960795768</v>
+        <v>3.060723960795967</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.68678387315987</v>
+        <v>141.0859147810339</v>
       </c>
       <c r="C32" t="n">
-        <v>103.0519690811798</v>
+        <v>141.0859147810339</v>
       </c>
       <c r="D32" t="n">
-        <v>141.0859147810345</v>
+        <v>141.0859147810339</v>
       </c>
       <c r="E32" t="n">
-        <v>133.833553413082</v>
+        <v>133.8335534130815</v>
       </c>
       <c r="F32" t="n">
-        <v>81.94293520234379</v>
+        <v>81.94293520234341</v>
       </c>
       <c r="G32" t="n">
-        <v>30.05231699160542</v>
+        <v>30.05231699160529</v>
       </c>
       <c r="H32" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="I32" t="n">
-        <v>4.109736962290468</v>
+        <v>14.84331352217749</v>
       </c>
       <c r="J32" t="n">
-        <v>39.53484284918678</v>
+        <v>14.84331352217749</v>
       </c>
       <c r="K32" t="n">
-        <v>39.53484284918678</v>
+        <v>27.03936208132909</v>
       </c>
       <c r="L32" t="n">
-        <v>32.29949559951872</v>
+        <v>19.80401483166139</v>
       </c>
       <c r="M32" t="n">
-        <v>32.29949559951872</v>
+        <v>19.80401483166139</v>
       </c>
       <c r="N32" t="n">
-        <v>39.4270552695005</v>
+        <v>26.93157450164327</v>
       </c>
       <c r="O32" t="n">
-        <v>39.4270552695005</v>
+        <v>26.93157450164327</v>
       </c>
       <c r="P32" t="n">
-        <v>36.86281650666071</v>
+        <v>24.36733573880344</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.86281650666071</v>
+        <v>24.36733573880344</v>
       </c>
       <c r="R32" t="n">
-        <v>36.86281650666071</v>
+        <v>31.32876437186865</v>
       </c>
       <c r="S32" t="n">
-        <v>36.86281650666071</v>
+        <v>69.49578509709424</v>
       </c>
       <c r="T32" t="n">
-        <v>87.72081141500524</v>
+        <v>120.3537800054387</v>
       </c>
       <c r="U32" t="n">
-        <v>87.72081141500524</v>
+        <v>120.3537800054387</v>
       </c>
       <c r="V32" t="n">
-        <v>124.1832124160102</v>
+        <v>156.8161810064437</v>
       </c>
       <c r="W32" t="n">
-        <v>124.1832124160102</v>
+        <v>184.5823433238837</v>
       </c>
       <c r="X32" t="n">
-        <v>124.1832124160102</v>
+        <v>184.5823433238837</v>
       </c>
       <c r="Y32" t="n">
-        <v>93.92995884616147</v>
+        <v>154.3290897540354</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="C33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="D33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="E33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="F33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="G33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="H33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="I33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="J33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="K33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="L33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="M33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="N33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="O33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="P33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="R33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="S33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="T33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="U33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="V33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="W33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="X33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="Y33" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="C34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="D34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="E34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="F34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="G34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="H34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="I34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="J34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="K34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="L34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="M34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="N34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="O34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="P34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="R34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="S34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="T34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="U34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="V34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="W34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="X34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>108.9552035000044</v>
+        <v>80.68678387315914</v>
       </c>
       <c r="C35" t="n">
-        <v>131.3203887080244</v>
+        <v>103.0519690811792</v>
       </c>
       <c r="D35" t="n">
-        <v>141.0859147810344</v>
+        <v>141.085914781034</v>
       </c>
       <c r="E35" t="n">
-        <v>133.8335534130819</v>
+        <v>133.8335534130816</v>
       </c>
       <c r="F35" t="n">
-        <v>81.94293520234365</v>
+        <v>81.94293520234352</v>
       </c>
       <c r="G35" t="n">
-        <v>30.05231699160542</v>
+        <v>30.05231699160529</v>
       </c>
       <c r="H35" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="I35" t="n">
-        <v>11.34508421195853</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="J35" t="n">
-        <v>11.34508421195853</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="K35" t="n">
-        <v>11.34508421195853</v>
+        <v>16.30578552144214</v>
       </c>
       <c r="L35" t="n">
-        <v>4.109736962290468</v>
+        <v>9.070438271774197</v>
       </c>
       <c r="M35" t="n">
-        <v>9.185309404371706</v>
+        <v>14.14601071385561</v>
       </c>
       <c r="N35" t="n">
-        <v>9.185309404371706</v>
+        <v>14.14601071385561</v>
       </c>
       <c r="O35" t="n">
-        <v>13.28313161542718</v>
+        <v>18.24383292491121</v>
       </c>
       <c r="P35" t="n">
-        <v>10.71889285258738</v>
+        <v>15.67959416206866</v>
       </c>
       <c r="Q35" t="n">
-        <v>10.71889285258738</v>
+        <v>20.58625824911358</v>
       </c>
       <c r="R35" t="n">
-        <v>10.71889285258738</v>
+        <v>27.54768688217882</v>
       </c>
       <c r="S35" t="n">
-        <v>61.57688776093191</v>
+        <v>78.40568179052323</v>
       </c>
       <c r="T35" t="n">
-        <v>112.4348826692764</v>
+        <v>92.86270172599575</v>
       </c>
       <c r="U35" t="n">
-        <v>112.4348826692764</v>
+        <v>92.86270172599575</v>
       </c>
       <c r="V35" t="n">
-        <v>148.8972836702814</v>
+        <v>92.86270172599575</v>
       </c>
       <c r="W35" t="n">
-        <v>148.8972836702814</v>
+        <v>120.6288640434358</v>
       </c>
       <c r="X35" t="n">
-        <v>152.4516320428544</v>
+        <v>124.1832124160089</v>
       </c>
       <c r="Y35" t="n">
-        <v>122.198378473006</v>
+        <v>93.92995884616063</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="C36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="D36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="E36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="F36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="G36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="H36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="I36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="J36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="K36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="L36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="M36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="N36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="O36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="P36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="Q36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="R36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="S36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="T36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="U36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="V36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="W36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="X36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="C37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="D37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="E37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="F37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="G37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="H37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="I37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="J37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="K37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="L37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="M37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="N37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="O37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="P37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="R37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="S37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="T37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="U37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="V37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="W37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="X37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>121.7734542754812</v>
+        <v>80.68678387315995</v>
       </c>
       <c r="C38" t="n">
-        <v>121.7734542754812</v>
+        <v>103.0519690811799</v>
       </c>
       <c r="D38" t="n">
-        <v>141.0859147810343</v>
+        <v>141.0859147810342</v>
       </c>
       <c r="E38" t="n">
-        <v>133.8335534130818</v>
+        <v>133.8335534130817</v>
       </c>
       <c r="F38" t="n">
-        <v>81.94293520234361</v>
+        <v>81.94293520234355</v>
       </c>
       <c r="G38" t="n">
-        <v>30.05231699160536</v>
+        <v>30.05231699160541</v>
       </c>
       <c r="H38" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="I38" t="n">
-        <v>14.84331352217758</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="J38" t="n">
-        <v>14.84331352217758</v>
+        <v>54.96773187063487</v>
       </c>
       <c r="K38" t="n">
-        <v>14.84331352217758</v>
+        <v>54.96773187063487</v>
       </c>
       <c r="L38" t="n">
-        <v>7.60796627250958</v>
+        <v>47.73238462096671</v>
       </c>
       <c r="M38" t="n">
-        <v>7.60796627250958</v>
+        <v>47.73238462096671</v>
       </c>
       <c r="N38" t="n">
-        <v>7.60796627250958</v>
+        <v>47.73238462096671</v>
       </c>
       <c r="O38" t="n">
-        <v>11.70578848356507</v>
+        <v>47.73238462096671</v>
       </c>
       <c r="P38" t="n">
-        <v>9.141549720724399</v>
+        <v>45.16814585812685</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.141549720724399</v>
+        <v>50.0748099451716</v>
       </c>
       <c r="R38" t="n">
-        <v>9.141549720724399</v>
+        <v>57.03623857823669</v>
       </c>
       <c r="S38" t="n">
-        <v>59.99954462906893</v>
+        <v>73.32521750766563</v>
       </c>
       <c r="T38" t="n">
-        <v>110.8575395374135</v>
+        <v>124.18321241601</v>
       </c>
       <c r="U38" t="n">
-        <v>161.715534445758</v>
+        <v>124.18321241601</v>
       </c>
       <c r="V38" t="n">
-        <v>161.715534445758</v>
+        <v>124.18321241601</v>
       </c>
       <c r="W38" t="n">
-        <v>161.715534445758</v>
+        <v>124.18321241601</v>
       </c>
       <c r="X38" t="n">
-        <v>165.2698828183311</v>
+        <v>124.18321241601</v>
       </c>
       <c r="Y38" t="n">
-        <v>135.0166292484827</v>
+        <v>93.92995884616155</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="C39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="D39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="E39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="F39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="G39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="H39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="I39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="J39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="K39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="L39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="M39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="N39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="O39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="P39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="R39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="S39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="T39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="U39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="V39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="W39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="X39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="C40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="D40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="E40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="F40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="G40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="H40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="I40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="J40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="K40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="L40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="M40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="N40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="O40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="P40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="R40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="S40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="T40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="U40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="V40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="W40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="X40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.109736962290468</v>
+        <v>4.109736962290458</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>57.0149564349669</v>
+        <v>81.8441221563948</v>
       </c>
       <c r="C41" t="n">
-        <v>78.60699410537291</v>
+        <v>81.8441221563948</v>
       </c>
       <c r="D41" t="n">
         <v>115.8677922676134</v>
@@ -7397,64 +7397,64 @@
         <v>107.8265853353165</v>
       </c>
       <c r="F41" t="n">
-        <v>68.82352659077188</v>
+        <v>68.82352659077185</v>
       </c>
       <c r="G41" t="n">
-        <v>29.82046784622731</v>
+        <v>29.82046784622725</v>
       </c>
       <c r="H41" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="I41" t="n">
-        <v>13.04947127484109</v>
+        <v>13.04947127484092</v>
       </c>
       <c r="J41" t="n">
-        <v>13.04947127484109</v>
+        <v>51.27636915036897</v>
       </c>
       <c r="K41" t="n">
-        <v>13.04947127484109</v>
+        <v>51.27636915036897</v>
       </c>
       <c r="L41" t="n">
-        <v>5.025278460828593</v>
+        <v>43.25217633635648</v>
       </c>
       <c r="M41" t="n">
-        <v>5.025278460828593</v>
+        <v>43.25217633635648</v>
       </c>
       <c r="N41" t="n">
-        <v>5.025278460828593</v>
+        <v>43.25217633635648</v>
       </c>
       <c r="O41" t="n">
-        <v>6.442126579752186</v>
+        <v>43.25217633635648</v>
       </c>
       <c r="P41" t="n">
-        <v>3.08904225256793</v>
+        <v>39.89909200917225</v>
       </c>
       <c r="Q41" t="n">
-        <v>7.22255880199863</v>
+        <v>44.03260855860314</v>
       </c>
       <c r="R41" t="n">
-        <v>7.22255880199863</v>
+        <v>50.2208896540543</v>
       </c>
       <c r="S41" t="n">
-        <v>7.22255880199863</v>
+        <v>50.2208896540543</v>
       </c>
       <c r="T41" t="n">
-        <v>36.86916345115094</v>
+        <v>50.2208896540543</v>
       </c>
       <c r="U41" t="n">
-        <v>75.09606132667906</v>
+        <v>88.44778752958342</v>
       </c>
       <c r="V41" t="n">
-        <v>75.09606132667906</v>
+        <v>124.1370409929745</v>
       </c>
       <c r="W41" t="n">
-        <v>102.0890761065058</v>
+        <v>124.1370409929745</v>
       </c>
       <c r="X41" t="n">
-        <v>102.0890761065058</v>
+        <v>126.9182418279336</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.04697697231296</v>
+        <v>95.8761426937408</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="C42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="D42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="E42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="F42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="G42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="H42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="I42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="J42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="K42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="L42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="M42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="N42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="O42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="P42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="R42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="S42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="T42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="U42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="V42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="W42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="X42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="Y42" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="C43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="D43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="E43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="F43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="G43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="H43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="I43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="J43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="K43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="L43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="M43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="N43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="O43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="P43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="R43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="S43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="T43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="U43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="V43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="W43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="X43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.08904225256793</v>
+        <v>3.089042252567932</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53.95396386836367</v>
+        <v>80.212277125412</v>
       </c>
       <c r="C44" t="n">
-        <v>70.66327271692106</v>
+        <v>101.3757202065031</v>
       </c>
       <c r="D44" t="n">
-        <v>101.8881178379606</v>
+        <v>101.888117837963</v>
       </c>
       <c r="E44" t="n">
-        <v>93.40961411011725</v>
+        <v>93.4096141101197</v>
       </c>
       <c r="F44" t="n">
-        <v>61.5507781535419</v>
+        <v>61.55077815354311</v>
       </c>
       <c r="G44" t="n">
-        <v>29.69194219696647</v>
+        <v>29.69194219696651</v>
       </c>
       <c r="H44" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="I44" t="n">
-        <v>2.523219807760768</v>
+        <v>12.05505424071895</v>
       </c>
       <c r="J44" t="n">
-        <v>10.98470941731958</v>
+        <v>12.05505424071895</v>
       </c>
       <c r="K44" t="n">
-        <v>10.98470941731958</v>
+        <v>12.05505424071895</v>
       </c>
       <c r="L44" t="n">
-        <v>2.523219807760768</v>
+        <v>3.593564631160135</v>
       </c>
       <c r="M44" t="n">
-        <v>2.523219807760768</v>
+        <v>7.467394946312538</v>
       </c>
       <c r="N44" t="n">
-        <v>6.313600930491278</v>
+        <v>7.467394946312538</v>
       </c>
       <c r="O44" t="n">
-        <v>6.313600930491278</v>
+        <v>10.3634750304391</v>
       </c>
       <c r="P44" t="n">
-        <v>2.523219807760768</v>
+        <v>6.573093907708426</v>
       </c>
       <c r="Q44" t="n">
-        <v>6.22814176787665</v>
+        <v>10.27801586782431</v>
       </c>
       <c r="R44" t="n">
-        <v>6.22814176787665</v>
+        <v>16.03770237396054</v>
       </c>
       <c r="S44" t="n">
-        <v>6.22814176787665</v>
+        <v>47.26254749500129</v>
       </c>
       <c r="T44" t="n">
-        <v>37.45298688891615</v>
+        <v>47.26254749500129</v>
       </c>
       <c r="U44" t="n">
-        <v>68.67783200995565</v>
+        <v>68.37172507649157</v>
       </c>
       <c r="V44" t="n">
-        <v>99.90267713099516</v>
+        <v>99.59657019753229</v>
       </c>
       <c r="W44" t="n">
-        <v>99.90267713099516</v>
+        <v>126.1609903880433</v>
       </c>
       <c r="X44" t="n">
-        <v>99.90267713099516</v>
+        <v>126.1609903880433</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.42328120125606</v>
+        <v>94.68159445830433</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="C45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="D45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="E45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="F45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="G45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="H45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="I45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="J45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="K45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="L45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="M45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="N45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="O45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="P45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="R45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="S45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="T45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="U45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="V45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="W45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="X45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="C46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="D46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="E46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="F46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="G46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="H46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="I46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="J46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="K46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="L46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="M46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="N46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="O46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="P46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="R46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="S46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="T46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="U46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="V46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="W46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="X46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.523219807760768</v>
+        <v>2.523219807760867</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.85475831328967</v>
+        <v>15.85475831328942</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.923852844291108</v>
+        <v>9.923852844290865</v>
       </c>
       <c r="F11" t="n">
-        <v>57.21839975716019</v>
+        <v>57.21839975715999</v>
       </c>
       <c r="G11" t="n">
-        <v>83.9913662112225</v>
+        <v>83.99136621122226</v>
       </c>
       <c r="H11" t="n">
-        <v>28.42716931903988</v>
+        <v>28.42716931903963</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>9.907008867189464</v>
+        <v>9.907008867189278</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23297,7 +23297,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>5.282611465229484</v>
+        <v>5.282611465229296</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.69473612416807</v>
+        <v>32.69473612416782</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.85475831328967</v>
+        <v>15.85475831328937</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.923852844291108</v>
+        <v>9.923852844290808</v>
       </c>
       <c r="F14" t="n">
-        <v>57.21839975716019</v>
+        <v>57.21839975715988</v>
       </c>
       <c r="G14" t="n">
-        <v>83.9913662112225</v>
+        <v>83.9913662112222</v>
       </c>
       <c r="H14" t="n">
-        <v>28.42716931903988</v>
+        <v>28.42716931903958</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>9.907008867189464</v>
+        <v>9.907008867189221</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23534,7 +23534,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>5.282611465229484</v>
+        <v>5.282611465229239</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.69473612416807</v>
+        <v>32.69473612416776</v>
       </c>
     </row>
     <row r="15">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>30.26588664897263</v>
+        <v>30.2658866489739</v>
       </c>
       <c r="G20" t="n">
-        <v>60.1415257415462</v>
+        <v>60.14152574154748</v>
       </c>
       <c r="H20" t="n">
-        <v>4.577328849363582</v>
+        <v>4.577328849364861</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.844895654491765</v>
+        <v>8.844895654493044</v>
       </c>
     </row>
     <row r="21">
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>13.91528660680097</v>
+        <v>13.91528660679831</v>
       </c>
       <c r="G29" t="n">
-        <v>43.79092569937455</v>
+        <v>43.79092569937189</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>29.87563909257352</v>
+        <v>29.87563909257369</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25637,10 +25637,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>13.5396409802327</v>
+        <v>13.53964098023262</v>
       </c>
       <c r="G41" t="n">
-        <v>43.41528007280628</v>
+        <v>43.4152800728062</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>21.04534536791309</v>
+        <v>21.04534536791179</v>
       </c>
       <c r="G44" t="n">
-        <v>50.92098446048666</v>
+        <v>50.92098446048537</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1714534.72544723</v>
+        <v>1714534.725447231</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1714534.72544723</v>
+        <v>1714534.725447231</v>
       </c>
     </row>
     <row r="7">
@@ -26375,34 +26375,34 @@
         <v>311273.201785139</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>5973.823422335161</v>
+        <v>5973.823422334985</v>
       </c>
       <c r="H3" t="n">
-        <v>2646.141127174855</v>
+        <v>2646.141127174484</v>
       </c>
       <c r="I3" t="n">
-        <v>2831.251090376476</v>
+        <v>2831.251090376968</v>
       </c>
       <c r="J3" t="n">
         <v>271126.1652263468</v>
       </c>
       <c r="K3" t="n">
-        <v>2166.646449261704</v>
+        <v>2166.646449262358</v>
       </c>
       <c r="L3" t="n">
-        <v>6437.655693416362</v>
+        <v>6437.655693415521</v>
       </c>
       <c r="M3" t="n">
-        <v>1586.921325665642</v>
+        <v>1586.921325665657</v>
       </c>
       <c r="N3" t="n">
-        <v>717.8078045209077</v>
+        <v>717.8078045209986</v>
       </c>
       <c r="O3" t="n">
-        <v>270501.3995393859</v>
+        <v>270501.399539386</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>542247.3791625964</v>
+        <v>542247.3791625965</v>
       </c>
       <c r="F4" t="n">
-        <v>542247.3791625964</v>
+        <v>542247.3791625965</v>
       </c>
       <c r="G4" t="n">
         <v>547210.2686102893</v>
       </c>
       <c r="H4" t="n">
-        <v>548688.9245413372</v>
+        <v>548688.9245413371</v>
       </c>
       <c r="I4" t="n">
         <v>550127.4327958075</v>
@@ -26442,22 +26442,22 @@
         <v>550127.4327958075</v>
       </c>
       <c r="K4" t="n">
-        <v>550821.5066084618</v>
+        <v>550821.506608462</v>
       </c>
       <c r="L4" t="n">
-        <v>552108.2927021446</v>
+        <v>552108.2927021447</v>
       </c>
       <c r="M4" t="n">
-        <v>552108.2927021446</v>
+        <v>552108.2927021447</v>
       </c>
       <c r="N4" t="n">
-        <v>552108.2927021446</v>
+        <v>552108.2927021447</v>
       </c>
       <c r="O4" t="n">
-        <v>550856.2436269709</v>
+        <v>550856.243626971</v>
       </c>
       <c r="P4" t="n">
-        <v>550162.1698143166</v>
+        <v>550162.1698143167</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29760.55650293886</v>
+        <v>29760.55650293887</v>
       </c>
       <c r="F5" t="n">
-        <v>29760.55650293886</v>
+        <v>29760.55650293887</v>
       </c>
       <c r="G5" t="n">
-        <v>30796.56836457214</v>
+        <v>30796.56836457213</v>
       </c>
       <c r="H5" t="n">
-        <v>31304.13039552468</v>
+        <v>31304.13039552459</v>
       </c>
       <c r="I5" t="n">
         <v>31862.77838857202</v>
@@ -26494,7 +26494,7 @@
         <v>31862.77838857202</v>
       </c>
       <c r="K5" t="n">
-        <v>32329.19891988717</v>
+        <v>32329.19891988733</v>
       </c>
       <c r="L5" t="n">
         <v>33193.92460548707</v>
@@ -26503,13 +26503,13 @@
         <v>33193.92460548707</v>
       </c>
       <c r="N5" t="n">
-        <v>33193.92460548707</v>
+        <v>33193.92460548706</v>
       </c>
       <c r="O5" t="n">
         <v>32352.54234292656</v>
       </c>
       <c r="P5" t="n">
-        <v>31886.12181161138</v>
+        <v>31886.12181161145</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-602677.3736743361</v>
+        <v>-602682.6475803554</v>
       </c>
       <c r="C6" t="n">
-        <v>-602677.3736743361</v>
+        <v>-602682.6475803554</v>
       </c>
       <c r="D6" t="n">
-        <v>-602677.3736743361</v>
+        <v>-602682.6475803554</v>
       </c>
       <c r="E6" t="n">
-        <v>-883281.1374506743</v>
+        <v>-883329.5541313519</v>
       </c>
       <c r="F6" t="n">
-        <v>-572007.9356655353</v>
+        <v>-572056.3523462128</v>
       </c>
       <c r="G6" t="n">
-        <v>-583980.6603971967</v>
+        <v>-584007.6865803349</v>
       </c>
       <c r="H6" t="n">
-        <v>-582639.1960640367</v>
+        <v>-582659.8581617781</v>
       </c>
       <c r="I6" t="n">
-        <v>-584821.462274756</v>
+        <v>-584835.9330813517</v>
       </c>
       <c r="J6" t="n">
-        <v>-853116.3764107263</v>
+        <v>-853130.8472173215</v>
       </c>
       <c r="K6" t="n">
-        <v>-585317.3519776107</v>
+        <v>-585328.8355138606</v>
       </c>
       <c r="L6" t="n">
-        <v>-591739.873001048</v>
+        <v>-591745.8182532267</v>
       </c>
       <c r="M6" t="n">
-        <v>-586889.1386332973</v>
+        <v>-586895.0838854768</v>
       </c>
       <c r="N6" t="n">
-        <v>-586020.0251121526</v>
+        <v>-586025.9703643321</v>
       </c>
       <c r="O6" t="n">
-        <v>-853710.1855092834</v>
+        <v>-853721.5195385732</v>
       </c>
       <c r="P6" t="n">
-        <v>-582048.2916259279</v>
+        <v>-582062.6129255639</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26695,34 @@
         <v>338.9077065329334</v>
       </c>
       <c r="F2" t="n">
-        <v>338.9077065329334</v>
+        <v>338.9077065329335</v>
       </c>
       <c r="G2" t="n">
-        <v>342.0037809746914</v>
+        <v>342.0037809746913</v>
       </c>
       <c r="H2" t="n">
-        <v>342.9260825709885</v>
+        <v>342.9260825709883</v>
       </c>
       <c r="I2" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="J2" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="K2" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="L2" t="n">
+        <v>345.0588902423477</v>
+      </c>
+      <c r="M2" t="n">
+        <v>345.0588902423477</v>
+      </c>
+      <c r="N2" t="n">
         <v>345.0588902423476</v>
       </c>
-      <c r="M2" t="n">
-        <v>345.0588902423476</v>
-      </c>
-      <c r="N2" t="n">
-        <v>345.0588902423477</v>
-      </c>
       <c r="O2" t="n">
-        <v>344.2779331336466</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="P2" t="n">
         <v>343.8450093060558</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.70498487900871</v>
+        <v>48.70498487900866</v>
       </c>
       <c r="F3" t="n">
-        <v>48.70498487900871</v>
+        <v>48.70498487900866</v>
       </c>
       <c r="G3" t="n">
-        <v>48.70498487900871</v>
+        <v>48.70498487900866</v>
       </c>
       <c r="H3" t="n">
-        <v>48.70498487900871</v>
+        <v>48.70498487900866</v>
       </c>
       <c r="I3" t="n">
-        <v>48.70498487900871</v>
+        <v>48.70498487900866</v>
       </c>
       <c r="J3" t="n">
-        <v>48.70498487900871</v>
+        <v>48.70498487900866</v>
       </c>
       <c r="K3" t="n">
-        <v>48.70498487900871</v>
+        <v>48.70498487900866</v>
       </c>
       <c r="L3" t="n">
-        <v>48.70498487900871</v>
+        <v>48.70498487900863</v>
       </c>
       <c r="M3" t="n">
-        <v>48.70498487900871</v>
+        <v>48.70498487900873</v>
       </c>
       <c r="N3" t="n">
-        <v>48.70498487900871</v>
+        <v>48.70498487900863</v>
       </c>
       <c r="O3" t="n">
-        <v>48.70498487900871</v>
+        <v>48.70498487900863</v>
       </c>
       <c r="P3" t="n">
-        <v>48.70498487900871</v>
+        <v>48.70498487900863</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="F4" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="G4" t="n">
-        <v>16.16585249092776</v>
+        <v>16.16585249092788</v>
       </c>
       <c r="H4" t="n">
-        <v>23.23863305101732</v>
+        <v>23.23863305101621</v>
       </c>
       <c r="I4" t="n">
-        <v>31.186268949858</v>
+        <v>31.18626894985789</v>
       </c>
       <c r="J4" t="n">
-        <v>31.186268949858</v>
+        <v>31.18626894985789</v>
       </c>
       <c r="K4" t="n">
-        <v>38.2590495099471</v>
+        <v>38.25904950994958</v>
       </c>
       <c r="L4" t="n">
-        <v>51.37171202863084</v>
+        <v>51.37171202863072</v>
       </c>
       <c r="M4" t="n">
-        <v>51.37171202863084</v>
+        <v>51.37171202863072</v>
       </c>
       <c r="N4" t="n">
-        <v>51.37171202863084</v>
+        <v>51.37171202863072</v>
       </c>
       <c r="O4" t="n">
-        <v>38.61302815709912</v>
+        <v>38.61302815709915</v>
       </c>
       <c r="P4" t="n">
-        <v>31.5402475970096</v>
+        <v>31.54024759701083</v>
       </c>
     </row>
   </sheetData>
@@ -26917,34 +26917,34 @@
         <v>338.9077065329334</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.096074441757992</v>
+        <v>3.096074441757821</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9223015962970749</v>
+        <v>0.922301596297018</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8972597556510777</v>
+        <v>0.897259755651362</v>
       </c>
       <c r="J2" t="n">
         <v>338.9077065329334</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4329238275908678</v>
+        <v>0.4329238275908484</v>
       </c>
       <c r="L2" t="n">
-        <v>3.898698529875219</v>
+        <v>3.898698529874991</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9223015962970749</v>
+        <v>0.922301596297018</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8972597556511346</v>
+        <v>0.8972597556512483</v>
       </c>
       <c r="O2" t="n">
-        <v>338.1267494242324</v>
+        <v>338.1267494242325</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.70498487900871</v>
+        <v>48.70498487900866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.75868387153171</v>
+        <v>12.75868387153156</v>
       </c>
       <c r="H4" t="n">
-        <v>7.072780560089527</v>
+        <v>7.07278056008832</v>
       </c>
       <c r="I4" t="n">
-        <v>7.947635898840687</v>
+        <v>7.947635898841682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7.072780560089093</v>
+        <v>7.072780560091694</v>
       </c>
       <c r="L4" t="n">
-        <v>13.11266251868374</v>
+        <v>13.11266251868114</v>
       </c>
       <c r="M4" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>338.9077065329334</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.096074441757992</v>
+        <v>3.096074441757821</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9223015962970749</v>
+        <v>0.922301596297018</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8972597556510777</v>
+        <v>0.897259755651362</v>
       </c>
       <c r="O2" t="n">
         <v>338.9077065329334</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4329238275908678</v>
+        <v>0.4329238275908484</v>
       </c>
     </row>
     <row r="3">
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.75868387153171</v>
+        <v>12.75868387153156</v>
       </c>
       <c r="P4" t="n">
-        <v>7.072780560089527</v>
+        <v>7.07278056008832</v>
       </c>
     </row>
   </sheetData>
@@ -28090,10 +28090,10 @@
         <v>338.9077065329334</v>
       </c>
       <c r="C11" t="n">
-        <v>325.8749626920265</v>
+        <v>325.8749626920268</v>
       </c>
       <c r="D11" t="n">
-        <v>310.0479318921935</v>
+        <v>310.0479318921937</v>
       </c>
       <c r="E11" t="n">
         <v>338.9077065329334</v>
@@ -28108,13 +28108,13 @@
         <v>338.9077065329334</v>
       </c>
       <c r="I11" t="n">
-        <v>337.6240623366054</v>
+        <v>337.6240623366056</v>
       </c>
       <c r="J11" t="n">
-        <v>280.98857368481</v>
+        <v>280.9885736848103</v>
       </c>
       <c r="K11" t="n">
-        <v>336.1468178929038</v>
+        <v>336.146817892904</v>
       </c>
       <c r="L11" t="n">
         <v>338.9077065329334</v>
@@ -28138,19 +28138,19 @@
         <v>338.9077065329334</v>
       </c>
       <c r="S11" t="n">
-        <v>286.8434165605083</v>
+        <v>286.8434165605086</v>
       </c>
       <c r="T11" t="n">
-        <v>225.5070489225026</v>
+        <v>228.914217541899</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4343908947997</v>
+        <v>250.4161651316475</v>
       </c>
       <c r="V11" t="n">
-        <v>311.6353507799205</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W11" t="n">
-        <v>319.4012044951168</v>
+        <v>320.4194302582692</v>
       </c>
       <c r="X11" t="n">
         <v>338.9077065329334</v>
@@ -28190,25 +28190,25 @@
         <v>158.1169417330168</v>
       </c>
       <c r="J12" t="n">
-        <v>196.2134633401378</v>
+        <v>196.2134633401379</v>
       </c>
       <c r="K12" t="n">
         <v>207.0756267456875</v>
       </c>
       <c r="L12" t="n">
-        <v>202.4042607608302</v>
+        <v>202.4042607608303</v>
       </c>
       <c r="M12" t="n">
         <v>204.4235883642201</v>
       </c>
       <c r="N12" t="n">
-        <v>186.1835189435266</v>
+        <v>186.1835189435267</v>
       </c>
       <c r="O12" t="n">
         <v>206.7934319889054</v>
       </c>
       <c r="P12" t="n">
-        <v>197.7035287307179</v>
+        <v>197.703528730718</v>
       </c>
       <c r="Q12" t="n">
         <v>214.0976481735711</v>
@@ -28278,7 +28278,7 @@
         <v>206.1298723551875</v>
       </c>
       <c r="M13" t="n">
-        <v>211.9868570416</v>
+        <v>211.9868570416001</v>
       </c>
       <c r="N13" t="n">
         <v>194.0488292565227</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.9077065329334</v>
+        <v>338.9077065329335</v>
       </c>
       <c r="C14" t="n">
-        <v>325.8749626920265</v>
+        <v>325.8749626920268</v>
       </c>
       <c r="D14" t="n">
-        <v>310.0479318921935</v>
+        <v>310.0479318921937</v>
       </c>
       <c r="E14" t="n">
-        <v>338.9077065329334</v>
+        <v>338.9077065329335</v>
       </c>
       <c r="F14" t="n">
-        <v>338.9077065329334</v>
+        <v>338.9077065329335</v>
       </c>
       <c r="G14" t="n">
-        <v>338.9077065329334</v>
+        <v>338.9077065329335</v>
       </c>
       <c r="H14" t="n">
-        <v>338.9077065329334</v>
+        <v>338.9077065329335</v>
       </c>
       <c r="I14" t="n">
-        <v>337.6240623366054</v>
+        <v>337.6240623366052</v>
       </c>
       <c r="J14" t="n">
-        <v>280.98857368481</v>
+        <v>280.9885736848103</v>
       </c>
       <c r="K14" t="n">
-        <v>336.1468178929042</v>
+        <v>336.146817892904</v>
       </c>
       <c r="L14" t="n">
-        <v>338.9077065329334</v>
+        <v>338.9077065329335</v>
       </c>
       <c r="M14" t="n">
-        <v>338.9077065329334</v>
+        <v>338.9077065329335</v>
       </c>
       <c r="N14" t="n">
-        <v>338.9077065329334</v>
+        <v>338.9077065329335</v>
       </c>
       <c r="O14" t="n">
-        <v>338.9077065329334</v>
+        <v>338.9077065329335</v>
       </c>
       <c r="P14" t="n">
-        <v>338.9077065329334</v>
+        <v>338.9077065329335</v>
       </c>
       <c r="Q14" t="n">
-        <v>338.9077065329334</v>
+        <v>338.9077065329335</v>
       </c>
       <c r="R14" t="n">
-        <v>338.0271441483425</v>
+        <v>338.9077065329335</v>
       </c>
       <c r="S14" t="n">
-        <v>286.7057531819468</v>
+        <v>286.8434165605086</v>
       </c>
       <c r="T14" t="n">
-        <v>228.9142175418987</v>
+        <v>225.5070489225027</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4343908947997</v>
+        <v>251.4343908947999</v>
       </c>
       <c r="V14" t="n">
-        <v>311.6353507799205</v>
+        <v>311.6353507799207</v>
       </c>
       <c r="W14" t="n">
-        <v>317.0122616388729</v>
+        <v>319.4012044951168</v>
       </c>
       <c r="X14" t="n">
-        <v>338.9077065329334</v>
+        <v>338.9077065329335</v>
       </c>
       <c r="Y14" t="n">
-        <v>338.9077065329334</v>
+        <v>338.9077065329335</v>
       </c>
     </row>
     <row r="15">
@@ -28427,25 +28427,25 @@
         <v>158.1169417330168</v>
       </c>
       <c r="J15" t="n">
-        <v>196.2134633401378</v>
+        <v>196.2134633401379</v>
       </c>
       <c r="K15" t="n">
         <v>207.0756267456875</v>
       </c>
       <c r="L15" t="n">
-        <v>202.4042607608302</v>
+        <v>202.4042607608303</v>
       </c>
       <c r="M15" t="n">
         <v>204.4235883642201</v>
       </c>
       <c r="N15" t="n">
-        <v>186.1835189435266</v>
+        <v>186.1835189435267</v>
       </c>
       <c r="O15" t="n">
         <v>206.7934319889054</v>
       </c>
       <c r="P15" t="n">
-        <v>197.7035287307179</v>
+        <v>197.703528730718</v>
       </c>
       <c r="Q15" t="n">
         <v>214.0976481735711</v>
@@ -28515,7 +28515,7 @@
         <v>206.1298723551875</v>
       </c>
       <c r="M16" t="n">
-        <v>211.9868570416</v>
+        <v>211.9868570416001</v>
       </c>
       <c r="N16" t="n">
         <v>194.0488292565227</v>
@@ -28524,7 +28524,7 @@
         <v>212.5776929367228</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1855292219905</v>
+        <v>213.1855292219906</v>
       </c>
       <c r="Q16" t="n">
         <v>238.8411749311192</v>
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>342.0037809746914</v>
+        <v>342.0037809746913</v>
       </c>
       <c r="C17" t="n">
-        <v>338.6336465635582</v>
+        <v>338.6336465635583</v>
       </c>
       <c r="D17" t="n">
-        <v>322.8066157637252</v>
+        <v>322.8066157637253</v>
       </c>
       <c r="E17" t="n">
-        <v>342.0037809746914</v>
+        <v>342.0037809746913</v>
       </c>
       <c r="F17" t="n">
-        <v>342.0037809746914</v>
+        <v>342.0037809746913</v>
       </c>
       <c r="G17" t="n">
-        <v>342.0037809746914</v>
+        <v>342.0037809746913</v>
       </c>
       <c r="H17" t="n">
-        <v>342.0037809746914</v>
+        <v>342.0037809746913</v>
       </c>
       <c r="I17" t="n">
-        <v>342.0037809746914</v>
+        <v>334.2168937172093</v>
       </c>
       <c r="J17" t="n">
-        <v>293.7472575563417</v>
+        <v>290.5584208470178</v>
       </c>
       <c r="K17" t="n">
         <v>332.7396492735077</v>
       </c>
       <c r="L17" t="n">
-        <v>342.0037809746914</v>
+        <v>342.0037809746913</v>
       </c>
       <c r="M17" t="n">
-        <v>342.0037809746914</v>
+        <v>342.0037809746913</v>
       </c>
       <c r="N17" t="n">
         <v>337.8593350201438</v>
       </c>
       <c r="O17" t="n">
-        <v>342.0037809746914</v>
+        <v>342.0037809746913</v>
       </c>
       <c r="P17" t="n">
-        <v>342.0037809746914</v>
+        <v>342.0037809746913</v>
       </c>
       <c r="Q17" t="n">
-        <v>342.0037809746914</v>
+        <v>342.0037809746913</v>
       </c>
       <c r="R17" t="n">
-        <v>342.0037809746914</v>
+        <v>342.0037809746913</v>
       </c>
       <c r="S17" t="n">
-        <v>299.60210043204</v>
+        <v>283.4362479411122</v>
       </c>
       <c r="T17" t="n">
-        <v>241.6729014134304</v>
+        <v>241.6729014134305</v>
       </c>
       <c r="U17" t="n">
-        <v>258.8883746161895</v>
+        <v>253.6982460920641</v>
       </c>
       <c r="V17" t="n">
-        <v>308.2281821605244</v>
+        <v>324.3940346514523</v>
       </c>
       <c r="W17" t="n">
-        <v>317.0122616388729</v>
+        <v>333.1781141298008</v>
       </c>
       <c r="X17" t="n">
-        <v>342.0037809746914</v>
+        <v>342.0037809746913</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.0037809746914</v>
+        <v>342.0037809746913</v>
       </c>
     </row>
     <row r="18">
@@ -28664,25 +28664,25 @@
         <v>158.1169417330168</v>
       </c>
       <c r="J18" t="n">
-        <v>196.2134633401378</v>
+        <v>196.2134633401379</v>
       </c>
       <c r="K18" t="n">
         <v>207.0756267456875</v>
       </c>
       <c r="L18" t="n">
-        <v>202.4042607608302</v>
+        <v>202.4042607608303</v>
       </c>
       <c r="M18" t="n">
         <v>204.4235883642201</v>
       </c>
       <c r="N18" t="n">
-        <v>186.1835189435266</v>
+        <v>186.1835189435267</v>
       </c>
       <c r="O18" t="n">
         <v>206.7934319889054</v>
       </c>
       <c r="P18" t="n">
-        <v>197.7035287307179</v>
+        <v>197.703528730718</v>
       </c>
       <c r="Q18" t="n">
         <v>214.0976481735711</v>
@@ -28752,7 +28752,7 @@
         <v>206.1298723551875</v>
       </c>
       <c r="M19" t="n">
-        <v>211.9868570416</v>
+        <v>211.9868570416001</v>
       </c>
       <c r="N19" t="n">
         <v>194.0488292565227</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.9260825709885</v>
+        <v>342.9260825709883</v>
       </c>
       <c r="C20" t="n">
-        <v>327.1102357894366</v>
+        <v>342.9260825709883</v>
       </c>
       <c r="D20" t="n">
-        <v>329.8793963238147</v>
+        <v>314.063549542263</v>
       </c>
       <c r="E20" t="n">
-        <v>342.9260825709885</v>
+        <v>342.9260825709883</v>
       </c>
       <c r="F20" t="n">
-        <v>342.9260825709885</v>
+        <v>342.9260825709883</v>
       </c>
       <c r="G20" t="n">
-        <v>342.9260825709885</v>
+        <v>342.9260825709883</v>
       </c>
       <c r="H20" t="n">
-        <v>342.9260825709885</v>
+        <v>342.9260825709883</v>
       </c>
       <c r="I20" t="n">
-        <v>342.9260825709885</v>
+        <v>342.9260825709883</v>
       </c>
       <c r="J20" t="n">
-        <v>277.5814050654139</v>
+        <v>300.8200381164302</v>
       </c>
       <c r="K20" t="n">
-        <v>335.2872235828136</v>
+        <v>332.7396492735077</v>
       </c>
       <c r="L20" t="n">
-        <v>342.9260825709885</v>
+        <v>342.9260825709883</v>
       </c>
       <c r="M20" t="n">
-        <v>342.9260825709885</v>
+        <v>342.9260825709883</v>
       </c>
       <c r="N20" t="n">
-        <v>337.8593350201438</v>
+        <v>342.9260825709883</v>
       </c>
       <c r="O20" t="n">
         <v>340.9196758877462</v>
       </c>
       <c r="P20" t="n">
-        <v>342.9260825709885</v>
+        <v>342.9260825709883</v>
       </c>
       <c r="Q20" t="n">
-        <v>342.9260825709885</v>
+        <v>340.1026638917974</v>
       </c>
       <c r="R20" t="n">
-        <v>338.0271441483425</v>
+        <v>342.9260825709883</v>
       </c>
       <c r="S20" t="n">
-        <v>306.6748809921295</v>
+        <v>306.6748809921285</v>
       </c>
       <c r="T20" t="n">
-        <v>225.5070489225026</v>
+        <v>248.7456819735189</v>
       </c>
       <c r="U20" t="n">
-        <v>266.0460587684739</v>
+        <v>248.0272222754036</v>
       </c>
       <c r="V20" t="n">
-        <v>331.4668152115417</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W20" t="n">
-        <v>340.2508946898902</v>
+        <v>331.8938483569775</v>
       </c>
       <c r="X20" t="n">
-        <v>342.9260825709885</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.9260825709885</v>
+        <v>342.9260825709883</v>
       </c>
     </row>
     <row r="21">
@@ -28901,25 +28901,25 @@
         <v>158.1169417330168</v>
       </c>
       <c r="J21" t="n">
-        <v>196.2134633401378</v>
+        <v>196.2134633401379</v>
       </c>
       <c r="K21" t="n">
         <v>207.0756267456875</v>
       </c>
       <c r="L21" t="n">
-        <v>202.4042607608302</v>
+        <v>202.4042607608303</v>
       </c>
       <c r="M21" t="n">
         <v>204.4235883642201</v>
       </c>
       <c r="N21" t="n">
-        <v>186.1835189435266</v>
+        <v>186.1835189435267</v>
       </c>
       <c r="O21" t="n">
         <v>206.7934319889054</v>
       </c>
       <c r="P21" t="n">
-        <v>197.7035287307179</v>
+        <v>197.703528730718</v>
       </c>
       <c r="Q21" t="n">
         <v>214.0976481735711</v>
@@ -28989,7 +28989,7 @@
         <v>206.1298723551875</v>
       </c>
       <c r="M22" t="n">
-        <v>211.9868570416</v>
+        <v>211.9868570416001</v>
       </c>
       <c r="N22" t="n">
         <v>194.0488292565227</v>
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="C23" t="n">
         <v>322.4677940726305</v>
       </c>
       <c r="D23" t="n">
-        <v>337.8270322226554</v>
+        <v>329.3573541125904</v>
       </c>
       <c r="E23" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="F23" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="G23" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="H23" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="I23" t="n">
         <v>334.2168937172093</v>
       </c>
       <c r="J23" t="n">
-        <v>298.8989885934126</v>
+        <v>308.7676740152718</v>
       </c>
       <c r="K23" t="n">
-        <v>343.8233423266396</v>
+        <v>332.7396492735077</v>
       </c>
       <c r="L23" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="M23" t="n">
-        <v>339.9320493917604</v>
+        <v>339.9320493917605</v>
       </c>
       <c r="N23" t="n">
-        <v>337.8593350201438</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="O23" t="n">
         <v>340.9196758877462</v>
       </c>
       <c r="P23" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="Q23" t="n">
-        <v>340.1026638917973</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="R23" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="S23" t="n">
-        <v>283.4362479411122</v>
+        <v>314.6225168909701</v>
       </c>
       <c r="T23" t="n">
-        <v>225.5070489225026</v>
+        <v>225.5070489225027</v>
       </c>
       <c r="U23" t="n">
-        <v>279.2134912252616</v>
+        <v>279.2134912252615</v>
       </c>
       <c r="V23" t="n">
-        <v>339.4144511103824</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W23" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="X23" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
     </row>
     <row r="24">
@@ -29138,25 +29138,25 @@
         <v>158.1169417330168</v>
       </c>
       <c r="J24" t="n">
-        <v>196.2134633401378</v>
+        <v>196.2134633401379</v>
       </c>
       <c r="K24" t="n">
         <v>207.0756267456875</v>
       </c>
       <c r="L24" t="n">
-        <v>202.4042607608302</v>
+        <v>202.4042607608303</v>
       </c>
       <c r="M24" t="n">
         <v>204.4235883642201</v>
       </c>
       <c r="N24" t="n">
-        <v>186.1835189435266</v>
+        <v>186.1835189435267</v>
       </c>
       <c r="O24" t="n">
         <v>206.7934319889054</v>
       </c>
       <c r="P24" t="n">
-        <v>197.7035287307179</v>
+        <v>197.703528730718</v>
       </c>
       <c r="Q24" t="n">
         <v>214.0976481735711</v>
@@ -29226,7 +29226,7 @@
         <v>206.1298723551875</v>
       </c>
       <c r="M25" t="n">
-        <v>211.9868570416</v>
+        <v>211.9868570416001</v>
       </c>
       <c r="N25" t="n">
         <v>194.0488292565227</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="C26" t="n">
-        <v>342.1700466154998</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="D26" t="n">
-        <v>337.8270322226554</v>
+        <v>307.9477119707885</v>
       </c>
       <c r="E26" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="F26" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="G26" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="H26" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="I26" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="J26" t="n">
         <v>277.5814050654139</v>
       </c>
       <c r="K26" t="n">
-        <v>332.7396492735077</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="L26" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="M26" t="n">
-        <v>339.9320493917604</v>
+        <v>339.9320493917605</v>
       </c>
       <c r="N26" t="n">
-        <v>340.6727272267516</v>
+        <v>337.8593350201438</v>
       </c>
       <c r="O26" t="n">
-        <v>340.9196758877462</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="Q26" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="R26" t="n">
-        <v>338.0271441483425</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="S26" t="n">
-        <v>314.6225168909702</v>
+        <v>314.6225168909701</v>
       </c>
       <c r="T26" t="n">
-        <v>225.5070489225026</v>
+        <v>225.5070489225027</v>
       </c>
       <c r="U26" t="n">
-        <v>248.0272222754036</v>
+        <v>261.6377843180939</v>
       </c>
       <c r="V26" t="n">
-        <v>339.4144511103824</v>
+        <v>339.4144511103823</v>
       </c>
       <c r="W26" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
       <c r="X26" t="n">
-        <v>343.8233423266396</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.8233423266396</v>
+        <v>343.8233423266397</v>
       </c>
     </row>
     <row r="27">
@@ -29375,25 +29375,25 @@
         <v>158.1169417330168</v>
       </c>
       <c r="J27" t="n">
-        <v>196.2134633401378</v>
+        <v>196.2134633401379</v>
       </c>
       <c r="K27" t="n">
         <v>207.0756267456875</v>
       </c>
       <c r="L27" t="n">
-        <v>202.4042607608302</v>
+        <v>202.4042607608303</v>
       </c>
       <c r="M27" t="n">
         <v>204.4235883642201</v>
       </c>
       <c r="N27" t="n">
-        <v>186.1835189435266</v>
+        <v>186.1835189435267</v>
       </c>
       <c r="O27" t="n">
         <v>206.7934319889054</v>
       </c>
       <c r="P27" t="n">
-        <v>197.7035287307179</v>
+        <v>197.703528730718</v>
       </c>
       <c r="Q27" t="n">
         <v>214.0976481735711</v>
@@ -29463,7 +29463,7 @@
         <v>206.1298723551875</v>
       </c>
       <c r="M28" t="n">
-        <v>211.9868570416</v>
+        <v>211.9868570416001</v>
       </c>
       <c r="N28" t="n">
         <v>194.0488292565227</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="C29" t="n">
-        <v>332.9623976504224</v>
+        <v>342.502429507669</v>
       </c>
       <c r="D29" t="n">
-        <v>344.2562661542304</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="F29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="G29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="H29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="I29" t="n">
-        <v>334.2168937172093</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="J29" t="n">
         <v>277.5814050654139</v>
       </c>
       <c r="K29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="L29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="M29" t="n">
-        <v>339.9518454572855</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="N29" t="n">
-        <v>337.8593350201438</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="O29" t="n">
-        <v>340.9196758877462</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="P29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="Q29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="R29" t="n">
-        <v>338.0271441483425</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="S29" t="n">
-        <v>321.6952974510593</v>
+        <v>321.6952974510618</v>
       </c>
       <c r="T29" t="n">
-        <v>225.5070489225026</v>
+        <v>225.5070489225027</v>
       </c>
       <c r="U29" t="n">
-        <v>286.2862717853507</v>
+        <v>248.0272222754036</v>
       </c>
       <c r="V29" t="n">
-        <v>308.2281821605244</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="W29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="X29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542306</v>
       </c>
       <c r="Y29" t="n">
-        <v>344.2562661542304</v>
+        <v>344.2562661542306</v>
       </c>
     </row>
     <row r="30">
@@ -29618,19 +29618,19 @@
         <v>207.0756267456875</v>
       </c>
       <c r="L30" t="n">
-        <v>202.4042607608302</v>
+        <v>202.4042607608303</v>
       </c>
       <c r="M30" t="n">
         <v>204.4235883642201</v>
       </c>
       <c r="N30" t="n">
-        <v>186.1835189435266</v>
+        <v>186.1835189435267</v>
       </c>
       <c r="O30" t="n">
         <v>206.7934319889054</v>
       </c>
       <c r="P30" t="n">
-        <v>197.7035287307179</v>
+        <v>197.703528730718</v>
       </c>
       <c r="Q30" t="n">
         <v>214.0976481735711</v>
@@ -29700,7 +29700,7 @@
         <v>206.1298723551875</v>
       </c>
       <c r="M31" t="n">
-        <v>211.9868570416</v>
+        <v>211.9868570416001</v>
       </c>
       <c r="N31" t="n">
         <v>194.0488292565227</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="C32" t="n">
-        <v>345.0588902423476</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D32" t="n">
-        <v>345.0588902423476</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E32" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="F32" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="G32" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="H32" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="I32" t="n">
-        <v>334.2168937172093</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="J32" t="n">
-        <v>313.3643403047031</v>
+        <v>277.5814050654139</v>
       </c>
       <c r="K32" t="n">
-        <v>332.7396492735077</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="L32" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="M32" t="n">
-        <v>339.9320493917604</v>
+        <v>339.9320493917605</v>
       </c>
       <c r="N32" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="O32" t="n">
         <v>340.9196758877462</v>
       </c>
       <c r="P32" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="Q32" t="n">
-        <v>340.1026638917973</v>
+        <v>340.1026638917974</v>
       </c>
       <c r="R32" t="n">
-        <v>338.0271441483425</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="S32" t="n">
-        <v>283.4362479411122</v>
+        <v>321.9887941282088</v>
       </c>
       <c r="T32" t="n">
-        <v>276.8787609511335</v>
+        <v>276.8787609511334</v>
       </c>
       <c r="U32" t="n">
         <v>248.0272222754036</v>
       </c>
       <c r="V32" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="W32" t="n">
-        <v>317.0122616388729</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="X32" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y32" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
     </row>
     <row r="33">
@@ -29849,25 +29849,25 @@
         <v>158.1169417330168</v>
       </c>
       <c r="J33" t="n">
-        <v>196.2134633401378</v>
+        <v>196.2134633401379</v>
       </c>
       <c r="K33" t="n">
         <v>207.0756267456875</v>
       </c>
       <c r="L33" t="n">
-        <v>202.4042607608302</v>
+        <v>202.4042607608303</v>
       </c>
       <c r="M33" t="n">
         <v>204.4235883642201</v>
       </c>
       <c r="N33" t="n">
-        <v>186.1835189435266</v>
+        <v>186.1835189435267</v>
       </c>
       <c r="O33" t="n">
         <v>206.7934319889054</v>
       </c>
       <c r="P33" t="n">
-        <v>197.7035287307179</v>
+        <v>197.703528730718</v>
       </c>
       <c r="Q33" t="n">
         <v>214.0976481735711</v>
@@ -29937,7 +29937,7 @@
         <v>206.1298723551875</v>
       </c>
       <c r="M34" t="n">
-        <v>211.9868570416</v>
+        <v>211.9868570416001</v>
       </c>
       <c r="N34" t="n">
         <v>194.0488292565227</v>
@@ -29946,7 +29946,7 @@
         <v>212.5776929367228</v>
       </c>
       <c r="P34" t="n">
-        <v>213.1855292219905</v>
+        <v>213.1855292219906</v>
       </c>
       <c r="Q34" t="n">
         <v>238.8411749311192</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="C35" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="D35" t="n">
-        <v>316.5049310233127</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="E35" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="F35" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="G35" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="H35" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="I35" t="n">
-        <v>341.5253252825307</v>
+        <v>334.2168937172093</v>
       </c>
       <c r="J35" t="n">
         <v>277.5814050654139</v>
       </c>
       <c r="K35" t="n">
-        <v>332.7396492735077</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="L35" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="M35" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="N35" t="n">
         <v>337.8593350201438</v>
       </c>
       <c r="O35" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="P35" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="Q35" t="n">
-        <v>340.1026638917973</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="R35" t="n">
-        <v>338.0271441483425</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="S35" t="n">
-        <v>334.8079599697431</v>
+        <v>334.807959969743</v>
       </c>
       <c r="T35" t="n">
-        <v>276.8787609511335</v>
+        <v>240.1100993623739</v>
       </c>
       <c r="U35" t="n">
         <v>248.0272222754036</v>
       </c>
       <c r="V35" t="n">
-        <v>345.0588902423476</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W35" t="n">
-        <v>317.0122616388729</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="X35" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
       <c r="Y35" t="n">
-        <v>345.0588902423476</v>
+        <v>345.0588902423477</v>
       </c>
     </row>
     <row r="36">
@@ -30095,7 +30095,7 @@
         <v>202.4042607608302</v>
       </c>
       <c r="M36" t="n">
-        <v>204.4235883642201</v>
+        <v>204.42358836422</v>
       </c>
       <c r="N36" t="n">
         <v>186.1835189435266</v>
@@ -30220,64 +30220,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>345.0588902423477</v>
+        <v>345.0588902423476</v>
       </c>
       <c r="C38" t="n">
-        <v>322.4677940726305</v>
+        <v>345.0588902423476</v>
       </c>
       <c r="D38" t="n">
-        <v>326.1482991369925</v>
+        <v>345.0588902423476</v>
       </c>
       <c r="E38" t="n">
-        <v>345.0588902423477</v>
+        <v>345.0588902423476</v>
       </c>
       <c r="F38" t="n">
-        <v>345.0588902423477</v>
+        <v>345.0588902423476</v>
       </c>
       <c r="G38" t="n">
-        <v>345.0588902423477</v>
+        <v>345.0588902423476</v>
       </c>
       <c r="H38" t="n">
-        <v>345.0588902423477</v>
+        <v>345.0588902423476</v>
       </c>
       <c r="I38" t="n">
-        <v>345.0588902423477</v>
+        <v>334.2168937172094</v>
       </c>
       <c r="J38" t="n">
-        <v>277.5814050654139</v>
+        <v>328.9531170940447</v>
       </c>
       <c r="K38" t="n">
         <v>332.7396492735077</v>
       </c>
       <c r="L38" t="n">
-        <v>345.0588902423477</v>
+        <v>345.0588902423476</v>
       </c>
       <c r="M38" t="n">
-        <v>339.9320493917604</v>
+        <v>339.9320493917605</v>
       </c>
       <c r="N38" t="n">
         <v>337.8593350201438</v>
       </c>
       <c r="O38" t="n">
-        <v>345.0588902423477</v>
+        <v>340.9196758877462</v>
       </c>
       <c r="P38" t="n">
-        <v>345.0588902423477</v>
+        <v>345.0588902423476</v>
       </c>
       <c r="Q38" t="n">
-        <v>340.1026638917973</v>
+        <v>345.0588902423476</v>
       </c>
       <c r="R38" t="n">
-        <v>338.0271441483425</v>
+        <v>345.0588902423476</v>
       </c>
       <c r="S38" t="n">
-        <v>334.8079599697431</v>
+        <v>299.8897620112425</v>
       </c>
       <c r="T38" t="n">
-        <v>276.8787609511335</v>
+        <v>276.8787609511334</v>
       </c>
       <c r="U38" t="n">
-        <v>299.3989343040344</v>
+        <v>248.0272222754036</v>
       </c>
       <c r="V38" t="n">
         <v>308.2281821605244</v>
@@ -30286,10 +30286,10 @@
         <v>317.0122616388729</v>
       </c>
       <c r="X38" t="n">
-        <v>345.0588902423477</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y38" t="n">
-        <v>345.0588902423477</v>
+        <v>345.0588902423476</v>
       </c>
     </row>
     <row r="39">
@@ -30323,25 +30323,25 @@
         <v>158.1169417330168</v>
       </c>
       <c r="J39" t="n">
-        <v>196.2134633401378</v>
+        <v>196.2134633401379</v>
       </c>
       <c r="K39" t="n">
         <v>207.0756267456875</v>
       </c>
       <c r="L39" t="n">
-        <v>202.4042607608302</v>
+        <v>202.4042607608303</v>
       </c>
       <c r="M39" t="n">
         <v>204.4235883642201</v>
       </c>
       <c r="N39" t="n">
-        <v>186.1835189435266</v>
+        <v>186.1835189435267</v>
       </c>
       <c r="O39" t="n">
         <v>206.7934319889054</v>
       </c>
       <c r="P39" t="n">
-        <v>197.7035287307179</v>
+        <v>197.703528730718</v>
       </c>
       <c r="Q39" t="n">
         <v>214.0976481735711</v>
@@ -30411,7 +30411,7 @@
         <v>206.1298723551875</v>
       </c>
       <c r="M40" t="n">
-        <v>211.9868570416</v>
+        <v>211.9868570416001</v>
       </c>
       <c r="N40" t="n">
         <v>194.0488292565227</v>
@@ -30420,7 +30420,7 @@
         <v>212.5776929367228</v>
       </c>
       <c r="P40" t="n">
-        <v>213.1855292219905</v>
+        <v>213.1855292219906</v>
       </c>
       <c r="Q40" t="n">
         <v>238.8411749311192</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>344.2779331336466</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="C41" t="n">
-        <v>344.2779331336466</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D41" t="n">
-        <v>344.2779331336466</v>
+        <v>341.0081068194829</v>
       </c>
       <c r="E41" t="n">
-        <v>344.2779331336466</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="F41" t="n">
-        <v>344.2779331336466</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="G41" t="n">
-        <v>344.2779331336466</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="H41" t="n">
-        <v>344.2779331336466</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="I41" t="n">
-        <v>344.2779331336466</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="J41" t="n">
-        <v>277.5814050654139</v>
+        <v>316.1944332225131</v>
       </c>
       <c r="K41" t="n">
         <v>332.7396492735077</v>
       </c>
       <c r="L41" t="n">
-        <v>344.2779331336466</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="M41" t="n">
-        <v>339.9320493917604</v>
+        <v>339.9320493917605</v>
       </c>
       <c r="N41" t="n">
         <v>337.8593350201438</v>
       </c>
       <c r="O41" t="n">
-        <v>342.3508356038306</v>
+        <v>340.9196758877462</v>
       </c>
       <c r="P41" t="n">
-        <v>344.2779331336466</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="Q41" t="n">
-        <v>344.2779331336466</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="R41" t="n">
-        <v>338.0271441483425</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="S41" t="n">
         <v>283.4362479411122</v>
       </c>
       <c r="T41" t="n">
-        <v>255.4531142246767</v>
+        <v>225.5070489225027</v>
       </c>
       <c r="U41" t="n">
         <v>286.6402504325027</v>
       </c>
       <c r="V41" t="n">
-        <v>308.2281821605244</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="W41" t="n">
-        <v>344.2779331336466</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X41" t="n">
-        <v>341.4686393609607</v>
+        <v>344.2779331336467</v>
       </c>
       <c r="Y41" t="n">
-        <v>344.2779331336466</v>
+        <v>344.2779331336467</v>
       </c>
     </row>
     <row r="42">
@@ -30560,25 +30560,25 @@
         <v>158.1169417330168</v>
       </c>
       <c r="J42" t="n">
-        <v>196.2134633401378</v>
+        <v>196.2134633401379</v>
       </c>
       <c r="K42" t="n">
         <v>207.0756267456875</v>
       </c>
       <c r="L42" t="n">
-        <v>202.4042607608302</v>
+        <v>202.4042607608303</v>
       </c>
       <c r="M42" t="n">
         <v>204.4235883642201</v>
       </c>
       <c r="N42" t="n">
-        <v>186.1835189435266</v>
+        <v>186.1835189435267</v>
       </c>
       <c r="O42" t="n">
         <v>206.7934319889054</v>
       </c>
       <c r="P42" t="n">
-        <v>197.7035287307179</v>
+        <v>197.703528730718</v>
       </c>
       <c r="Q42" t="n">
         <v>214.0976481735711</v>
@@ -30648,7 +30648,7 @@
         <v>206.1298723551875</v>
       </c>
       <c r="M43" t="n">
-        <v>211.9868570416</v>
+        <v>211.9868570416001</v>
       </c>
       <c r="N43" t="n">
         <v>194.0488292565227</v>
@@ -30657,7 +30657,7 @@
         <v>212.5776929367228</v>
       </c>
       <c r="P43" t="n">
-        <v>213.1855292219905</v>
+        <v>213.1855292219906</v>
       </c>
       <c r="Q43" t="n">
         <v>238.8411749311192</v>
@@ -30697,10 +30697,10 @@
         <v>343.8450093060558</v>
       </c>
       <c r="C44" t="n">
-        <v>339.345883818648</v>
+        <v>343.8450093060558</v>
       </c>
       <c r="D44" t="n">
-        <v>338.181010869807</v>
+        <v>307.1583366379083</v>
       </c>
       <c r="E44" t="n">
         <v>343.8450093060558</v>
@@ -30715,10 +30715,10 @@
         <v>343.8450093060558</v>
       </c>
       <c r="I44" t="n">
-        <v>334.2168937172093</v>
+        <v>343.8450093060558</v>
       </c>
       <c r="J44" t="n">
-        <v>286.1283642669887</v>
+        <v>277.5814050654139</v>
       </c>
       <c r="K44" t="n">
         <v>332.7396492735077</v>
@@ -30727,13 +30727,13 @@
         <v>343.8450093060558</v>
       </c>
       <c r="M44" t="n">
-        <v>339.9320493917604</v>
+        <v>343.8450093060558</v>
       </c>
       <c r="N44" t="n">
-        <v>341.6880028208816</v>
+        <v>337.8593350201438</v>
       </c>
       <c r="O44" t="n">
-        <v>340.9196758877462</v>
+        <v>343.8450093060558</v>
       </c>
       <c r="P44" t="n">
         <v>343.8450093060558</v>
@@ -30742,22 +30742,22 @@
         <v>343.8450093060558</v>
       </c>
       <c r="R44" t="n">
-        <v>338.0271441483425</v>
+        <v>343.8450093060558</v>
       </c>
       <c r="S44" t="n">
-        <v>283.4362479411122</v>
+        <v>314.9764955381231</v>
       </c>
       <c r="T44" t="n">
-        <v>257.0472965195122</v>
+        <v>225.5070489225027</v>
       </c>
       <c r="U44" t="n">
-        <v>279.5674698724132</v>
+        <v>269.3496238728685</v>
       </c>
       <c r="V44" t="n">
-        <v>339.768429757534</v>
+        <v>339.7684297575352</v>
       </c>
       <c r="W44" t="n">
-        <v>317.0122616388729</v>
+        <v>343.8450093060558</v>
       </c>
       <c r="X44" t="n">
         <v>341.4686393609607</v>
@@ -30797,25 +30797,25 @@
         <v>158.1169417330168</v>
       </c>
       <c r="J45" t="n">
-        <v>196.2134633401378</v>
+        <v>196.2134633401379</v>
       </c>
       <c r="K45" t="n">
         <v>207.0756267456875</v>
       </c>
       <c r="L45" t="n">
-        <v>202.4042607608302</v>
+        <v>202.4042607608303</v>
       </c>
       <c r="M45" t="n">
         <v>204.4235883642201</v>
       </c>
       <c r="N45" t="n">
-        <v>186.1835189435266</v>
+        <v>186.1835189435267</v>
       </c>
       <c r="O45" t="n">
         <v>206.7934319889054</v>
       </c>
       <c r="P45" t="n">
-        <v>197.7035287307179</v>
+        <v>197.703528730718</v>
       </c>
       <c r="Q45" t="n">
         <v>214.0976481735711</v>
@@ -30885,7 +30885,7 @@
         <v>206.1298723551875</v>
       </c>
       <c r="M46" t="n">
-        <v>211.9868570416</v>
+        <v>211.9868570416001</v>
       </c>
       <c r="N46" t="n">
         <v>194.0488292565227</v>
@@ -30894,7 +30894,7 @@
         <v>212.5776929367228</v>
       </c>
       <c r="P46" t="n">
-        <v>213.1855292219905</v>
+        <v>213.1855292219906</v>
       </c>
       <c r="Q46" t="n">
         <v>238.8411749311192</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1957989341869695</v>
+        <v>0.1957989341869693</v>
       </c>
       <c r="H11" t="n">
-        <v>2.005225834742302</v>
+        <v>2.0052258347423</v>
       </c>
       <c r="I11" t="n">
-        <v>7.548538410243149</v>
+        <v>7.548538410243142</v>
       </c>
       <c r="J11" t="n">
-        <v>16.61818979045132</v>
+        <v>16.6181897904513</v>
       </c>
       <c r="K11" t="n">
-        <v>24.90635867458574</v>
+        <v>24.90635867458572</v>
       </c>
       <c r="L11" t="n">
-        <v>30.89854030671022</v>
+        <v>30.89854030671019</v>
       </c>
       <c r="M11" t="n">
-        <v>34.38057960255774</v>
+        <v>34.3805796025577</v>
       </c>
       <c r="N11" t="n">
-        <v>34.93689332431646</v>
+        <v>34.93689332431643</v>
       </c>
       <c r="O11" t="n">
-        <v>32.98991767249478</v>
+        <v>32.98991767249476</v>
       </c>
       <c r="P11" t="n">
-        <v>28.15613148475397</v>
+        <v>28.15613148475394</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.14408215418312</v>
+        <v>21.1440821541831</v>
       </c>
       <c r="R11" t="n">
-        <v>12.29935479962223</v>
+        <v>12.29935479962222</v>
       </c>
       <c r="S11" t="n">
-        <v>4.461768212785572</v>
+        <v>4.461768212785568</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8571098344034596</v>
+        <v>0.8571098344034587</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01566391473495756</v>
+        <v>0.01566391473495754</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1047616655888112</v>
+        <v>0.1047616655888111</v>
       </c>
       <c r="H12" t="n">
-        <v>1.011777138712992</v>
+        <v>1.011777138712991</v>
       </c>
       <c r="I12" t="n">
-        <v>3.606925766983192</v>
+        <v>3.606925766983189</v>
       </c>
       <c r="J12" t="n">
-        <v>9.897679993195535</v>
+        <v>9.897679993195524</v>
       </c>
       <c r="K12" t="n">
-        <v>16.91671158764589</v>
+        <v>16.91671158764587</v>
       </c>
       <c r="L12" t="n">
-        <v>22.74660638146534</v>
+        <v>22.74660638146532</v>
       </c>
       <c r="M12" t="n">
-        <v>26.54421675905974</v>
+        <v>26.54421675905972</v>
       </c>
       <c r="N12" t="n">
-        <v>27.24676319188998</v>
+        <v>27.24676319188995</v>
       </c>
       <c r="O12" t="n">
-        <v>24.92546523331684</v>
+        <v>24.92546523331682</v>
       </c>
       <c r="P12" t="n">
-        <v>20.00488331756869</v>
+        <v>20.00488331756867</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.37273471621386</v>
+        <v>13.37273471621385</v>
       </c>
       <c r="R12" t="n">
-        <v>6.504412886294788</v>
+        <v>6.504412886294781</v>
       </c>
       <c r="S12" t="n">
-        <v>1.945901990213224</v>
+        <v>1.945901990213222</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4222630292812168</v>
+        <v>0.4222630292812164</v>
       </c>
       <c r="U12" t="n">
-        <v>0.006892214841369159</v>
+        <v>0.006892214841369152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0878286612572288</v>
+        <v>0.08782866125722871</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7808766428142712</v>
+        <v>0.7808766428142704</v>
       </c>
       <c r="I13" t="n">
-        <v>2.641247376717391</v>
+        <v>2.641247376717388</v>
       </c>
       <c r="J13" t="n">
-        <v>6.209486350886076</v>
+        <v>6.20948635088607</v>
       </c>
       <c r="K13" t="n">
-        <v>10.20409355333985</v>
+        <v>10.20409355333984</v>
       </c>
       <c r="L13" t="n">
-        <v>13.05772660182473</v>
+        <v>13.05772660182472</v>
       </c>
       <c r="M13" t="n">
-        <v>13.76754187325815</v>
+        <v>13.76754187325813</v>
       </c>
       <c r="N13" t="n">
-        <v>13.44018049948121</v>
+        <v>13.4401804994812</v>
       </c>
       <c r="O13" t="n">
-        <v>12.41418204752176</v>
+        <v>12.41418204752175</v>
       </c>
       <c r="P13" t="n">
-        <v>10.62247735787429</v>
+        <v>10.62247735787428</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.354452716730314</v>
+        <v>7.354452716730306</v>
       </c>
       <c r="R13" t="n">
-        <v>3.949095987075032</v>
+        <v>3.949095987075028</v>
       </c>
       <c r="S13" t="n">
-        <v>1.530614033000978</v>
+        <v>1.530614033000976</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3752679162808866</v>
+        <v>0.3752679162808862</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004790654250394303</v>
+        <v>0.004790654250394299</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1957989341869695</v>
+        <v>0.1957989341869693</v>
       </c>
       <c r="H14" t="n">
-        <v>2.005225834742302</v>
+        <v>2.0052258347423</v>
       </c>
       <c r="I14" t="n">
-        <v>7.548538410243149</v>
+        <v>7.548538410243142</v>
       </c>
       <c r="J14" t="n">
-        <v>16.61818979045132</v>
+        <v>16.6181897904513</v>
       </c>
       <c r="K14" t="n">
-        <v>24.90635867458574</v>
+        <v>24.90635867458572</v>
       </c>
       <c r="L14" t="n">
-        <v>30.89854030671022</v>
+        <v>30.89854030671019</v>
       </c>
       <c r="M14" t="n">
-        <v>34.38057960255774</v>
+        <v>34.3805796025577</v>
       </c>
       <c r="N14" t="n">
-        <v>34.93689332431646</v>
+        <v>34.93689332431643</v>
       </c>
       <c r="O14" t="n">
-        <v>32.98991767249478</v>
+        <v>32.98991767249476</v>
       </c>
       <c r="P14" t="n">
-        <v>28.15613148475397</v>
+        <v>28.15613148475394</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.14408215418312</v>
+        <v>21.1440821541831</v>
       </c>
       <c r="R14" t="n">
-        <v>12.29935479962223</v>
+        <v>12.29935479962222</v>
       </c>
       <c r="S14" t="n">
-        <v>4.461768212785572</v>
+        <v>4.461768212785568</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8571098344034596</v>
+        <v>0.8571098344034587</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01566391473495756</v>
+        <v>0.01566391473495754</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1047616655888112</v>
+        <v>0.1047616655888111</v>
       </c>
       <c r="H15" t="n">
-        <v>1.011777138712992</v>
+        <v>1.011777138712991</v>
       </c>
       <c r="I15" t="n">
-        <v>3.606925766983192</v>
+        <v>3.606925766983189</v>
       </c>
       <c r="J15" t="n">
-        <v>9.897679993195535</v>
+        <v>9.897679993195524</v>
       </c>
       <c r="K15" t="n">
-        <v>16.91671158764589</v>
+        <v>16.91671158764587</v>
       </c>
       <c r="L15" t="n">
-        <v>22.74660638146534</v>
+        <v>22.74660638146532</v>
       </c>
       <c r="M15" t="n">
-        <v>26.54421675905974</v>
+        <v>26.54421675905972</v>
       </c>
       <c r="N15" t="n">
-        <v>27.24676319188998</v>
+        <v>27.24676319188995</v>
       </c>
       <c r="O15" t="n">
-        <v>24.92546523331684</v>
+        <v>24.92546523331682</v>
       </c>
       <c r="P15" t="n">
-        <v>20.00488331756869</v>
+        <v>20.00488331756867</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.37273471621386</v>
+        <v>13.37273471621385</v>
       </c>
       <c r="R15" t="n">
-        <v>6.504412886294788</v>
+        <v>6.504412886294781</v>
       </c>
       <c r="S15" t="n">
-        <v>1.945901990213224</v>
+        <v>1.945901990213222</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4222630292812168</v>
+        <v>0.4222630292812164</v>
       </c>
       <c r="U15" t="n">
-        <v>0.006892214841369159</v>
+        <v>0.006892214841369152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0878286612572288</v>
+        <v>0.08782866125722871</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7808766428142712</v>
+        <v>0.7808766428142704</v>
       </c>
       <c r="I16" t="n">
-        <v>2.641247376717391</v>
+        <v>2.641247376717388</v>
       </c>
       <c r="J16" t="n">
-        <v>6.209486350886076</v>
+        <v>6.20948635088607</v>
       </c>
       <c r="K16" t="n">
-        <v>10.20409355333985</v>
+        <v>10.20409355333984</v>
       </c>
       <c r="L16" t="n">
-        <v>13.05772660182473</v>
+        <v>13.05772660182472</v>
       </c>
       <c r="M16" t="n">
-        <v>13.76754187325815</v>
+        <v>13.76754187325813</v>
       </c>
       <c r="N16" t="n">
-        <v>13.44018049948121</v>
+        <v>13.4401804994812</v>
       </c>
       <c r="O16" t="n">
-        <v>12.41418204752176</v>
+        <v>12.41418204752175</v>
       </c>
       <c r="P16" t="n">
-        <v>10.62247735787429</v>
+        <v>10.62247735787428</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.354452716730314</v>
+        <v>7.354452716730306</v>
       </c>
       <c r="R16" t="n">
-        <v>3.949095987075032</v>
+        <v>3.949095987075028</v>
       </c>
       <c r="S16" t="n">
-        <v>1.530614033000978</v>
+        <v>1.530614033000976</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3752679162808866</v>
+        <v>0.3752679162808862</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004790654250394303</v>
+        <v>0.004790654250394299</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1957989341869695</v>
+        <v>0.1957989341869693</v>
       </c>
       <c r="H17" t="n">
-        <v>2.005225834742302</v>
+        <v>2.0052258347423</v>
       </c>
       <c r="I17" t="n">
-        <v>7.548538410243149</v>
+        <v>7.548538410243142</v>
       </c>
       <c r="J17" t="n">
-        <v>16.61818979045132</v>
+        <v>16.6181897904513</v>
       </c>
       <c r="K17" t="n">
-        <v>24.90635867458574</v>
+        <v>24.90635867458572</v>
       </c>
       <c r="L17" t="n">
-        <v>30.89854030671022</v>
+        <v>30.89854030671019</v>
       </c>
       <c r="M17" t="n">
-        <v>34.38057960255774</v>
+        <v>34.3805796025577</v>
       </c>
       <c r="N17" t="n">
-        <v>34.93689332431646</v>
+        <v>34.93689332431643</v>
       </c>
       <c r="O17" t="n">
-        <v>32.98991767249478</v>
+        <v>32.98991767249476</v>
       </c>
       <c r="P17" t="n">
-        <v>28.15613148475397</v>
+        <v>28.15613148475394</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.14408215418312</v>
+        <v>21.1440821541831</v>
       </c>
       <c r="R17" t="n">
-        <v>12.29935479962223</v>
+        <v>12.29935479962222</v>
       </c>
       <c r="S17" t="n">
-        <v>4.461768212785572</v>
+        <v>4.461768212785568</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8571098344034596</v>
+        <v>0.8571098344034587</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01566391473495756</v>
+        <v>0.01566391473495754</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1047616655888112</v>
+        <v>0.1047616655888111</v>
       </c>
       <c r="H18" t="n">
-        <v>1.011777138712992</v>
+        <v>1.011777138712991</v>
       </c>
       <c r="I18" t="n">
-        <v>3.606925766983192</v>
+        <v>3.606925766983189</v>
       </c>
       <c r="J18" t="n">
-        <v>9.897679993195535</v>
+        <v>9.897679993195524</v>
       </c>
       <c r="K18" t="n">
-        <v>16.91671158764589</v>
+        <v>16.91671158764587</v>
       </c>
       <c r="L18" t="n">
-        <v>22.74660638146534</v>
+        <v>22.74660638146532</v>
       </c>
       <c r="M18" t="n">
-        <v>26.54421675905974</v>
+        <v>26.54421675905972</v>
       </c>
       <c r="N18" t="n">
-        <v>27.24676319188998</v>
+        <v>27.24676319188995</v>
       </c>
       <c r="O18" t="n">
-        <v>24.92546523331684</v>
+        <v>24.92546523331682</v>
       </c>
       <c r="P18" t="n">
-        <v>20.00488331756869</v>
+        <v>20.00488331756867</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.37273471621386</v>
+        <v>13.37273471621385</v>
       </c>
       <c r="R18" t="n">
-        <v>6.504412886294788</v>
+        <v>6.504412886294781</v>
       </c>
       <c r="S18" t="n">
-        <v>1.945901990213224</v>
+        <v>1.945901990213222</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4222630292812168</v>
+        <v>0.4222630292812164</v>
       </c>
       <c r="U18" t="n">
-        <v>0.006892214841369159</v>
+        <v>0.006892214841369152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0878286612572288</v>
+        <v>0.08782866125722871</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7808766428142712</v>
+        <v>0.7808766428142704</v>
       </c>
       <c r="I19" t="n">
-        <v>2.641247376717391</v>
+        <v>2.641247376717388</v>
       </c>
       <c r="J19" t="n">
-        <v>6.209486350886076</v>
+        <v>6.20948635088607</v>
       </c>
       <c r="K19" t="n">
-        <v>10.20409355333985</v>
+        <v>10.20409355333984</v>
       </c>
       <c r="L19" t="n">
-        <v>13.05772660182473</v>
+        <v>13.05772660182472</v>
       </c>
       <c r="M19" t="n">
-        <v>13.76754187325815</v>
+        <v>13.76754187325813</v>
       </c>
       <c r="N19" t="n">
-        <v>13.44018049948121</v>
+        <v>13.4401804994812</v>
       </c>
       <c r="O19" t="n">
-        <v>12.41418204752176</v>
+        <v>12.41418204752175</v>
       </c>
       <c r="P19" t="n">
-        <v>10.62247735787429</v>
+        <v>10.62247735787428</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.354452716730314</v>
+        <v>7.354452716730306</v>
       </c>
       <c r="R19" t="n">
-        <v>3.949095987075032</v>
+        <v>3.949095987075028</v>
       </c>
       <c r="S19" t="n">
-        <v>1.530614033000978</v>
+        <v>1.530614033000976</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3752679162808866</v>
+        <v>0.3752679162808862</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004790654250394303</v>
+        <v>0.004790654250394299</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1957989341869695</v>
+        <v>0.1957989341869693</v>
       </c>
       <c r="H20" t="n">
-        <v>2.005225834742302</v>
+        <v>2.0052258347423</v>
       </c>
       <c r="I20" t="n">
-        <v>7.548538410243149</v>
+        <v>7.548538410243142</v>
       </c>
       <c r="J20" t="n">
-        <v>16.61818979045132</v>
+        <v>16.6181897904513</v>
       </c>
       <c r="K20" t="n">
-        <v>24.90635867458574</v>
+        <v>24.90635867458572</v>
       </c>
       <c r="L20" t="n">
-        <v>30.89854030671022</v>
+        <v>30.89854030671019</v>
       </c>
       <c r="M20" t="n">
-        <v>34.38057960255774</v>
+        <v>34.3805796025577</v>
       </c>
       <c r="N20" t="n">
-        <v>34.93689332431646</v>
+        <v>34.93689332431643</v>
       </c>
       <c r="O20" t="n">
-        <v>32.98991767249478</v>
+        <v>32.98991767249476</v>
       </c>
       <c r="P20" t="n">
-        <v>28.15613148475397</v>
+        <v>28.15613148475394</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.14408215418312</v>
+        <v>21.1440821541831</v>
       </c>
       <c r="R20" t="n">
-        <v>12.29935479962223</v>
+        <v>12.29935479962222</v>
       </c>
       <c r="S20" t="n">
-        <v>4.461768212785572</v>
+        <v>4.461768212785568</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8571098344034596</v>
+        <v>0.8571098344034587</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01566391473495756</v>
+        <v>0.01566391473495754</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1047616655888112</v>
+        <v>0.1047616655888111</v>
       </c>
       <c r="H21" t="n">
-        <v>1.011777138712992</v>
+        <v>1.011777138712991</v>
       </c>
       <c r="I21" t="n">
-        <v>3.606925766983192</v>
+        <v>3.606925766983189</v>
       </c>
       <c r="J21" t="n">
-        <v>9.897679993195535</v>
+        <v>9.897679993195524</v>
       </c>
       <c r="K21" t="n">
-        <v>16.91671158764589</v>
+        <v>16.91671158764587</v>
       </c>
       <c r="L21" t="n">
-        <v>22.74660638146534</v>
+        <v>22.74660638146532</v>
       </c>
       <c r="M21" t="n">
-        <v>26.54421675905974</v>
+        <v>26.54421675905972</v>
       </c>
       <c r="N21" t="n">
-        <v>27.24676319188998</v>
+        <v>27.24676319188995</v>
       </c>
       <c r="O21" t="n">
-        <v>24.92546523331684</v>
+        <v>24.92546523331682</v>
       </c>
       <c r="P21" t="n">
-        <v>20.00488331756869</v>
+        <v>20.00488331756867</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.37273471621386</v>
+        <v>13.37273471621385</v>
       </c>
       <c r="R21" t="n">
-        <v>6.504412886294788</v>
+        <v>6.504412886294781</v>
       </c>
       <c r="S21" t="n">
-        <v>1.945901990213224</v>
+        <v>1.945901990213222</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4222630292812168</v>
+        <v>0.4222630292812164</v>
       </c>
       <c r="U21" t="n">
-        <v>0.006892214841369159</v>
+        <v>0.006892214841369152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0878286612572288</v>
+        <v>0.08782866125722871</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7808766428142712</v>
+        <v>0.7808766428142704</v>
       </c>
       <c r="I22" t="n">
-        <v>2.641247376717391</v>
+        <v>2.641247376717388</v>
       </c>
       <c r="J22" t="n">
-        <v>6.209486350886076</v>
+        <v>6.20948635088607</v>
       </c>
       <c r="K22" t="n">
-        <v>10.20409355333985</v>
+        <v>10.20409355333984</v>
       </c>
       <c r="L22" t="n">
-        <v>13.05772660182473</v>
+        <v>13.05772660182472</v>
       </c>
       <c r="M22" t="n">
-        <v>13.76754187325815</v>
+        <v>13.76754187325813</v>
       </c>
       <c r="N22" t="n">
-        <v>13.44018049948121</v>
+        <v>13.4401804994812</v>
       </c>
       <c r="O22" t="n">
-        <v>12.41418204752176</v>
+        <v>12.41418204752175</v>
       </c>
       <c r="P22" t="n">
-        <v>10.62247735787429</v>
+        <v>10.62247735787428</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.354452716730314</v>
+        <v>7.354452716730306</v>
       </c>
       <c r="R22" t="n">
-        <v>3.949095987075032</v>
+        <v>3.949095987075028</v>
       </c>
       <c r="S22" t="n">
-        <v>1.530614033000978</v>
+        <v>1.530614033000976</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3752679162808866</v>
+        <v>0.3752679162808862</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004790654250394303</v>
+        <v>0.004790654250394299</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1957989341869695</v>
+        <v>0.1957989341869693</v>
       </c>
       <c r="H23" t="n">
-        <v>2.005225834742302</v>
+        <v>2.0052258347423</v>
       </c>
       <c r="I23" t="n">
-        <v>7.548538410243149</v>
+        <v>7.548538410243142</v>
       </c>
       <c r="J23" t="n">
-        <v>16.61818979045132</v>
+        <v>16.6181897904513</v>
       </c>
       <c r="K23" t="n">
-        <v>24.90635867458574</v>
+        <v>24.90635867458572</v>
       </c>
       <c r="L23" t="n">
-        <v>30.89854030671022</v>
+        <v>30.89854030671019</v>
       </c>
       <c r="M23" t="n">
-        <v>34.38057960255774</v>
+        <v>34.3805796025577</v>
       </c>
       <c r="N23" t="n">
-        <v>34.93689332431646</v>
+        <v>34.93689332431643</v>
       </c>
       <c r="O23" t="n">
-        <v>32.98991767249478</v>
+        <v>32.98991767249476</v>
       </c>
       <c r="P23" t="n">
-        <v>28.15613148475397</v>
+        <v>28.15613148475394</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.14408215418312</v>
+        <v>21.1440821541831</v>
       </c>
       <c r="R23" t="n">
-        <v>12.29935479962223</v>
+        <v>12.29935479962222</v>
       </c>
       <c r="S23" t="n">
-        <v>4.461768212785572</v>
+        <v>4.461768212785568</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8571098344034596</v>
+        <v>0.8571098344034587</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01566391473495756</v>
+        <v>0.01566391473495754</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1047616655888112</v>
+        <v>0.1047616655888111</v>
       </c>
       <c r="H24" t="n">
-        <v>1.011777138712992</v>
+        <v>1.011777138712991</v>
       </c>
       <c r="I24" t="n">
-        <v>3.606925766983192</v>
+        <v>3.606925766983189</v>
       </c>
       <c r="J24" t="n">
-        <v>9.897679993195535</v>
+        <v>9.897679993195524</v>
       </c>
       <c r="K24" t="n">
-        <v>16.91671158764589</v>
+        <v>16.91671158764587</v>
       </c>
       <c r="L24" t="n">
-        <v>22.74660638146534</v>
+        <v>22.74660638146532</v>
       </c>
       <c r="M24" t="n">
-        <v>26.54421675905974</v>
+        <v>26.54421675905972</v>
       </c>
       <c r="N24" t="n">
-        <v>27.24676319188998</v>
+        <v>27.24676319188995</v>
       </c>
       <c r="O24" t="n">
-        <v>24.92546523331684</v>
+        <v>24.92546523331682</v>
       </c>
       <c r="P24" t="n">
-        <v>20.00488331756869</v>
+        <v>20.00488331756867</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.37273471621386</v>
+        <v>13.37273471621385</v>
       </c>
       <c r="R24" t="n">
-        <v>6.504412886294788</v>
+        <v>6.504412886294781</v>
       </c>
       <c r="S24" t="n">
-        <v>1.945901990213224</v>
+        <v>1.945901990213222</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4222630292812168</v>
+        <v>0.4222630292812164</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006892214841369159</v>
+        <v>0.006892214841369152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0878286612572288</v>
+        <v>0.08782866125722871</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7808766428142712</v>
+        <v>0.7808766428142704</v>
       </c>
       <c r="I25" t="n">
-        <v>2.641247376717391</v>
+        <v>2.641247376717388</v>
       </c>
       <c r="J25" t="n">
-        <v>6.209486350886076</v>
+        <v>6.20948635088607</v>
       </c>
       <c r="K25" t="n">
-        <v>10.20409355333985</v>
+        <v>10.20409355333984</v>
       </c>
       <c r="L25" t="n">
-        <v>13.05772660182473</v>
+        <v>13.05772660182472</v>
       </c>
       <c r="M25" t="n">
-        <v>13.76754187325815</v>
+        <v>13.76754187325813</v>
       </c>
       <c r="N25" t="n">
-        <v>13.44018049948121</v>
+        <v>13.4401804994812</v>
       </c>
       <c r="O25" t="n">
-        <v>12.41418204752176</v>
+        <v>12.41418204752175</v>
       </c>
       <c r="P25" t="n">
-        <v>10.62247735787429</v>
+        <v>10.62247735787428</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.354452716730314</v>
+        <v>7.354452716730306</v>
       </c>
       <c r="R25" t="n">
-        <v>3.949095987075032</v>
+        <v>3.949095987075028</v>
       </c>
       <c r="S25" t="n">
-        <v>1.530614033000978</v>
+        <v>1.530614033000976</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3752679162808866</v>
+        <v>0.3752679162808862</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004790654250394303</v>
+        <v>0.004790654250394299</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1957989341869695</v>
+        <v>0.1957989341869693</v>
       </c>
       <c r="H26" t="n">
-        <v>2.005225834742302</v>
+        <v>2.0052258347423</v>
       </c>
       <c r="I26" t="n">
-        <v>7.548538410243149</v>
+        <v>7.548538410243142</v>
       </c>
       <c r="J26" t="n">
-        <v>16.61818979045132</v>
+        <v>16.6181897904513</v>
       </c>
       <c r="K26" t="n">
-        <v>24.90635867458574</v>
+        <v>24.90635867458572</v>
       </c>
       <c r="L26" t="n">
-        <v>30.89854030671022</v>
+        <v>30.89854030671019</v>
       </c>
       <c r="M26" t="n">
-        <v>34.38057960255774</v>
+        <v>34.3805796025577</v>
       </c>
       <c r="N26" t="n">
-        <v>34.93689332431646</v>
+        <v>34.93689332431643</v>
       </c>
       <c r="O26" t="n">
-        <v>32.98991767249478</v>
+        <v>32.98991767249476</v>
       </c>
       <c r="P26" t="n">
-        <v>28.15613148475397</v>
+        <v>28.15613148475394</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.14408215418312</v>
+        <v>21.1440821541831</v>
       </c>
       <c r="R26" t="n">
-        <v>12.29935479962223</v>
+        <v>12.29935479962222</v>
       </c>
       <c r="S26" t="n">
-        <v>4.461768212785572</v>
+        <v>4.461768212785568</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8571098344034596</v>
+        <v>0.8571098344034587</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01566391473495756</v>
+        <v>0.01566391473495754</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1047616655888112</v>
+        <v>0.1047616655888111</v>
       </c>
       <c r="H27" t="n">
-        <v>1.011777138712992</v>
+        <v>1.011777138712991</v>
       </c>
       <c r="I27" t="n">
-        <v>3.606925766983192</v>
+        <v>3.606925766983189</v>
       </c>
       <c r="J27" t="n">
-        <v>9.897679993195535</v>
+        <v>9.897679993195524</v>
       </c>
       <c r="K27" t="n">
-        <v>16.91671158764589</v>
+        <v>16.91671158764587</v>
       </c>
       <c r="L27" t="n">
-        <v>22.74660638146534</v>
+        <v>22.74660638146532</v>
       </c>
       <c r="M27" t="n">
-        <v>26.54421675905974</v>
+        <v>26.54421675905972</v>
       </c>
       <c r="N27" t="n">
-        <v>27.24676319188998</v>
+        <v>27.24676319188995</v>
       </c>
       <c r="O27" t="n">
-        <v>24.92546523331684</v>
+        <v>24.92546523331682</v>
       </c>
       <c r="P27" t="n">
-        <v>20.00488331756869</v>
+        <v>20.00488331756867</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.37273471621386</v>
+        <v>13.37273471621385</v>
       </c>
       <c r="R27" t="n">
-        <v>6.504412886294788</v>
+        <v>6.504412886294781</v>
       </c>
       <c r="S27" t="n">
-        <v>1.945901990213224</v>
+        <v>1.945901990213222</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4222630292812168</v>
+        <v>0.4222630292812164</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006892214841369159</v>
+        <v>0.006892214841369152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0878286612572288</v>
+        <v>0.08782866125722871</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7808766428142712</v>
+        <v>0.7808766428142704</v>
       </c>
       <c r="I28" t="n">
-        <v>2.641247376717391</v>
+        <v>2.641247376717388</v>
       </c>
       <c r="J28" t="n">
-        <v>6.209486350886076</v>
+        <v>6.20948635088607</v>
       </c>
       <c r="K28" t="n">
-        <v>10.20409355333985</v>
+        <v>10.20409355333984</v>
       </c>
       <c r="L28" t="n">
-        <v>13.05772660182473</v>
+        <v>13.05772660182472</v>
       </c>
       <c r="M28" t="n">
-        <v>13.76754187325815</v>
+        <v>13.76754187325813</v>
       </c>
       <c r="N28" t="n">
-        <v>13.44018049948121</v>
+        <v>13.4401804994812</v>
       </c>
       <c r="O28" t="n">
-        <v>12.41418204752176</v>
+        <v>12.41418204752175</v>
       </c>
       <c r="P28" t="n">
-        <v>10.62247735787429</v>
+        <v>10.62247735787428</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.354452716730314</v>
+        <v>7.354452716730306</v>
       </c>
       <c r="R28" t="n">
-        <v>3.949095987075032</v>
+        <v>3.949095987075028</v>
       </c>
       <c r="S28" t="n">
-        <v>1.530614033000978</v>
+        <v>1.530614033000976</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3752679162808866</v>
+        <v>0.3752679162808862</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004790654250394303</v>
+        <v>0.004790654250394299</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1957989341869695</v>
+        <v>0.1957989341869693</v>
       </c>
       <c r="H29" t="n">
-        <v>2.005225834742302</v>
+        <v>2.0052258347423</v>
       </c>
       <c r="I29" t="n">
-        <v>7.548538410243149</v>
+        <v>7.548538410243142</v>
       </c>
       <c r="J29" t="n">
-        <v>16.61818979045132</v>
+        <v>16.6181897904513</v>
       </c>
       <c r="K29" t="n">
-        <v>24.90635867458574</v>
+        <v>24.90635867458572</v>
       </c>
       <c r="L29" t="n">
-        <v>30.89854030671022</v>
+        <v>30.89854030671019</v>
       </c>
       <c r="M29" t="n">
-        <v>34.38057960255774</v>
+        <v>34.3805796025577</v>
       </c>
       <c r="N29" t="n">
-        <v>34.93689332431646</v>
+        <v>34.93689332431643</v>
       </c>
       <c r="O29" t="n">
-        <v>32.98991767249478</v>
+        <v>32.98991767249476</v>
       </c>
       <c r="P29" t="n">
-        <v>28.15613148475397</v>
+        <v>28.15613148475394</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.14408215418312</v>
+        <v>21.1440821541831</v>
       </c>
       <c r="R29" t="n">
-        <v>12.29935479962223</v>
+        <v>12.29935479962222</v>
       </c>
       <c r="S29" t="n">
-        <v>4.461768212785572</v>
+        <v>4.461768212785568</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8571098344034596</v>
+        <v>0.8571098344034587</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01566391473495756</v>
+        <v>0.01566391473495754</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1047616655888112</v>
+        <v>0.1047616655888111</v>
       </c>
       <c r="H30" t="n">
-        <v>1.011777138712992</v>
+        <v>1.011777138712991</v>
       </c>
       <c r="I30" t="n">
-        <v>3.606925766983192</v>
+        <v>3.606925766983189</v>
       </c>
       <c r="J30" t="n">
-        <v>9.897679993195535</v>
+        <v>9.897679993195524</v>
       </c>
       <c r="K30" t="n">
-        <v>16.91671158764589</v>
+        <v>16.91671158764587</v>
       </c>
       <c r="L30" t="n">
-        <v>22.74660638146534</v>
+        <v>22.74660638146532</v>
       </c>
       <c r="M30" t="n">
-        <v>26.54421675905974</v>
+        <v>26.54421675905972</v>
       </c>
       <c r="N30" t="n">
-        <v>27.24676319188998</v>
+        <v>27.24676319188995</v>
       </c>
       <c r="O30" t="n">
-        <v>24.92546523331684</v>
+        <v>24.92546523331682</v>
       </c>
       <c r="P30" t="n">
-        <v>20.00488331756869</v>
+        <v>20.00488331756867</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.37273471621386</v>
+        <v>13.37273471621385</v>
       </c>
       <c r="R30" t="n">
-        <v>6.504412886294788</v>
+        <v>6.504412886294781</v>
       </c>
       <c r="S30" t="n">
-        <v>1.945901990213224</v>
+        <v>1.945901990213222</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4222630292812168</v>
+        <v>0.4222630292812164</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006892214841369159</v>
+        <v>0.006892214841369152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0878286612572288</v>
+        <v>0.08782866125722871</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7808766428142712</v>
+        <v>0.7808766428142704</v>
       </c>
       <c r="I31" t="n">
-        <v>2.641247376717391</v>
+        <v>2.641247376717388</v>
       </c>
       <c r="J31" t="n">
-        <v>6.209486350886076</v>
+        <v>6.20948635088607</v>
       </c>
       <c r="K31" t="n">
-        <v>10.20409355333985</v>
+        <v>10.20409355333984</v>
       </c>
       <c r="L31" t="n">
-        <v>13.05772660182473</v>
+        <v>13.05772660182472</v>
       </c>
       <c r="M31" t="n">
-        <v>13.76754187325815</v>
+        <v>13.76754187325813</v>
       </c>
       <c r="N31" t="n">
-        <v>13.44018049948121</v>
+        <v>13.4401804994812</v>
       </c>
       <c r="O31" t="n">
-        <v>12.41418204752176</v>
+        <v>12.41418204752175</v>
       </c>
       <c r="P31" t="n">
-        <v>10.62247735787429</v>
+        <v>10.62247735787428</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.354452716730314</v>
+        <v>7.354452716730306</v>
       </c>
       <c r="R31" t="n">
-        <v>3.949095987075032</v>
+        <v>3.949095987075028</v>
       </c>
       <c r="S31" t="n">
-        <v>1.530614033000978</v>
+        <v>1.530614033000976</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3752679162808866</v>
+        <v>0.3752679162808862</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004790654250394303</v>
+        <v>0.004790654250394299</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1957989341869695</v>
+        <v>0.1957989341869692</v>
       </c>
       <c r="H32" t="n">
-        <v>2.005225834742302</v>
+        <v>2.005225834742299</v>
       </c>
       <c r="I32" t="n">
-        <v>7.548538410243149</v>
+        <v>7.548538410243139</v>
       </c>
       <c r="J32" t="n">
-        <v>16.61818979045132</v>
+        <v>16.6181897904513</v>
       </c>
       <c r="K32" t="n">
-        <v>24.90635867458574</v>
+        <v>24.90635867458571</v>
       </c>
       <c r="L32" t="n">
-        <v>30.89854030671022</v>
+        <v>30.89854030671017</v>
       </c>
       <c r="M32" t="n">
-        <v>34.38057960255774</v>
+        <v>34.38057960255769</v>
       </c>
       <c r="N32" t="n">
-        <v>34.93689332431646</v>
+        <v>34.93689332431642</v>
       </c>
       <c r="O32" t="n">
-        <v>32.98991767249478</v>
+        <v>32.98991767249474</v>
       </c>
       <c r="P32" t="n">
-        <v>28.15613148475397</v>
+        <v>28.15613148475393</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.14408215418312</v>
+        <v>21.14408215418309</v>
       </c>
       <c r="R32" t="n">
-        <v>12.29935479962223</v>
+        <v>12.29935479962222</v>
       </c>
       <c r="S32" t="n">
-        <v>4.461768212785572</v>
+        <v>4.461768212785566</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8571098344034596</v>
+        <v>0.8571098344034582</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01566391473495756</v>
+        <v>0.01566391473495754</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1047616655888112</v>
+        <v>0.104761665588811</v>
       </c>
       <c r="H33" t="n">
-        <v>1.011777138712992</v>
+        <v>1.011777138712991</v>
       </c>
       <c r="I33" t="n">
-        <v>3.606925766983192</v>
+        <v>3.606925766983187</v>
       </c>
       <c r="J33" t="n">
-        <v>9.897679993195535</v>
+        <v>9.897679993195521</v>
       </c>
       <c r="K33" t="n">
-        <v>16.91671158764589</v>
+        <v>16.91671158764586</v>
       </c>
       <c r="L33" t="n">
-        <v>22.74660638146534</v>
+        <v>22.74660638146531</v>
       </c>
       <c r="M33" t="n">
-        <v>26.54421675905974</v>
+        <v>26.5442167590597</v>
       </c>
       <c r="N33" t="n">
-        <v>27.24676319188998</v>
+        <v>27.24676319188994</v>
       </c>
       <c r="O33" t="n">
-        <v>24.92546523331684</v>
+        <v>24.92546523331681</v>
       </c>
       <c r="P33" t="n">
-        <v>20.00488331756869</v>
+        <v>20.00488331756866</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.37273471621386</v>
+        <v>13.37273471621384</v>
       </c>
       <c r="R33" t="n">
-        <v>6.504412886294788</v>
+        <v>6.504412886294778</v>
       </c>
       <c r="S33" t="n">
-        <v>1.945901990213224</v>
+        <v>1.945901990213221</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4222630292812168</v>
+        <v>0.4222630292812162</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006892214841369159</v>
+        <v>0.00689221484136915</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0878286612572288</v>
+        <v>0.08782866125722867</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7808766428142712</v>
+        <v>0.78087664281427</v>
       </c>
       <c r="I34" t="n">
-        <v>2.641247376717391</v>
+        <v>2.641247376717387</v>
       </c>
       <c r="J34" t="n">
-        <v>6.209486350886076</v>
+        <v>6.209486350886067</v>
       </c>
       <c r="K34" t="n">
-        <v>10.20409355333985</v>
+        <v>10.20409355333984</v>
       </c>
       <c r="L34" t="n">
-        <v>13.05772660182473</v>
+        <v>13.05772660182471</v>
       </c>
       <c r="M34" t="n">
-        <v>13.76754187325815</v>
+        <v>13.76754187325813</v>
       </c>
       <c r="N34" t="n">
-        <v>13.44018049948121</v>
+        <v>13.44018049948119</v>
       </c>
       <c r="O34" t="n">
-        <v>12.41418204752176</v>
+        <v>12.41418204752175</v>
       </c>
       <c r="P34" t="n">
-        <v>10.62247735787429</v>
+        <v>10.62247735787427</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.354452716730314</v>
+        <v>7.354452716730304</v>
       </c>
       <c r="R34" t="n">
-        <v>3.949095987075032</v>
+        <v>3.949095987075026</v>
       </c>
       <c r="S34" t="n">
-        <v>1.530614033000978</v>
+        <v>1.530614033000976</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3752679162808866</v>
+        <v>0.3752679162808861</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004790654250394303</v>
+        <v>0.004790654250394297</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1957989341869695</v>
+        <v>0.1957989341869696</v>
       </c>
       <c r="H35" t="n">
-        <v>2.005225834742302</v>
+        <v>2.005225834742303</v>
       </c>
       <c r="I35" t="n">
-        <v>7.548538410243149</v>
+        <v>7.548538410243154</v>
       </c>
       <c r="J35" t="n">
-        <v>16.61818979045132</v>
+        <v>16.61818979045133</v>
       </c>
       <c r="K35" t="n">
-        <v>24.90635867458574</v>
+        <v>24.90635867458576</v>
       </c>
       <c r="L35" t="n">
-        <v>30.89854030671022</v>
+        <v>30.89854030671024</v>
       </c>
       <c r="M35" t="n">
-        <v>34.38057960255774</v>
+        <v>34.38057960255776</v>
       </c>
       <c r="N35" t="n">
-        <v>34.93689332431646</v>
+        <v>34.93689332431649</v>
       </c>
       <c r="O35" t="n">
-        <v>32.98991767249478</v>
+        <v>32.9899176724948</v>
       </c>
       <c r="P35" t="n">
-        <v>28.15613148475397</v>
+        <v>28.15613148475399</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.14408215418312</v>
+        <v>21.14408215418313</v>
       </c>
       <c r="R35" t="n">
-        <v>12.29935479962223</v>
+        <v>12.29935479962224</v>
       </c>
       <c r="S35" t="n">
-        <v>4.461768212785572</v>
+        <v>4.461768212785575</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8571098344034596</v>
+        <v>0.85710983440346</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01566391473495756</v>
+        <v>0.01566391473495757</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,46 +33728,46 @@
         <v>0.1047616655888112</v>
       </c>
       <c r="H36" t="n">
-        <v>1.011777138712992</v>
+        <v>1.011777138712993</v>
       </c>
       <c r="I36" t="n">
-        <v>3.606925766983192</v>
+        <v>3.606925766983195</v>
       </c>
       <c r="J36" t="n">
-        <v>9.897679993195535</v>
+        <v>9.89767999319554</v>
       </c>
       <c r="K36" t="n">
         <v>16.91671158764589</v>
       </c>
       <c r="L36" t="n">
-        <v>22.74660638146534</v>
+        <v>22.74660638146536</v>
       </c>
       <c r="M36" t="n">
-        <v>26.54421675905974</v>
+        <v>26.54421675905976</v>
       </c>
       <c r="N36" t="n">
-        <v>27.24676319188998</v>
+        <v>27.24676319188999</v>
       </c>
       <c r="O36" t="n">
-        <v>24.92546523331684</v>
+        <v>24.92546523331686</v>
       </c>
       <c r="P36" t="n">
-        <v>20.00488331756869</v>
+        <v>20.0048833175687</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.37273471621386</v>
+        <v>13.37273471621387</v>
       </c>
       <c r="R36" t="n">
-        <v>6.504412886294788</v>
+        <v>6.504412886294792</v>
       </c>
       <c r="S36" t="n">
-        <v>1.945901990213224</v>
+        <v>1.945901990213225</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4222630292812168</v>
+        <v>0.4222630292812171</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006892214841369159</v>
+        <v>0.006892214841369163</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0878286612572288</v>
+        <v>0.08782866125722885</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7808766428142712</v>
+        <v>0.7808766428142716</v>
       </c>
       <c r="I37" t="n">
-        <v>2.641247376717391</v>
+        <v>2.641247376717392</v>
       </c>
       <c r="J37" t="n">
-        <v>6.209486350886076</v>
+        <v>6.209486350886079</v>
       </c>
       <c r="K37" t="n">
-        <v>10.20409355333985</v>
+        <v>10.20409355333986</v>
       </c>
       <c r="L37" t="n">
-        <v>13.05772660182473</v>
+        <v>13.05772660182474</v>
       </c>
       <c r="M37" t="n">
         <v>13.76754187325815</v>
       </c>
       <c r="N37" t="n">
-        <v>13.44018049948121</v>
+        <v>13.44018049948122</v>
       </c>
       <c r="O37" t="n">
-        <v>12.41418204752176</v>
+        <v>12.41418204752177</v>
       </c>
       <c r="P37" t="n">
         <v>10.62247735787429</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.354452716730314</v>
+        <v>7.354452716730319</v>
       </c>
       <c r="R37" t="n">
-        <v>3.949095987075032</v>
+        <v>3.949095987075034</v>
       </c>
       <c r="S37" t="n">
-        <v>1.530614033000978</v>
+        <v>1.530614033000979</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3752679162808866</v>
+        <v>0.3752679162808868</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004790654250394303</v>
+        <v>0.004790654250394307</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1957989341869695</v>
+        <v>0.1957989341869692</v>
       </c>
       <c r="H38" t="n">
-        <v>2.005225834742302</v>
+        <v>2.005225834742299</v>
       </c>
       <c r="I38" t="n">
-        <v>7.548538410243149</v>
+        <v>7.548538410243139</v>
       </c>
       <c r="J38" t="n">
-        <v>16.61818979045132</v>
+        <v>16.6181897904513</v>
       </c>
       <c r="K38" t="n">
-        <v>24.90635867458574</v>
+        <v>24.90635867458571</v>
       </c>
       <c r="L38" t="n">
-        <v>30.89854030671022</v>
+        <v>30.89854030671017</v>
       </c>
       <c r="M38" t="n">
-        <v>34.38057960255774</v>
+        <v>34.38057960255769</v>
       </c>
       <c r="N38" t="n">
-        <v>34.93689332431646</v>
+        <v>34.93689332431642</v>
       </c>
       <c r="O38" t="n">
-        <v>32.98991767249478</v>
+        <v>32.98991767249474</v>
       </c>
       <c r="P38" t="n">
-        <v>28.15613148475397</v>
+        <v>28.15613148475393</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.14408215418312</v>
+        <v>21.14408215418309</v>
       </c>
       <c r="R38" t="n">
-        <v>12.29935479962223</v>
+        <v>12.29935479962222</v>
       </c>
       <c r="S38" t="n">
-        <v>4.461768212785572</v>
+        <v>4.461768212785566</v>
       </c>
       <c r="T38" t="n">
-        <v>0.8571098344034596</v>
+        <v>0.8571098344034582</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01566391473495756</v>
+        <v>0.01566391473495754</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1047616655888112</v>
+        <v>0.104761665588811</v>
       </c>
       <c r="H39" t="n">
-        <v>1.011777138712992</v>
+        <v>1.011777138712991</v>
       </c>
       <c r="I39" t="n">
-        <v>3.606925766983192</v>
+        <v>3.606925766983187</v>
       </c>
       <c r="J39" t="n">
-        <v>9.897679993195535</v>
+        <v>9.897679993195521</v>
       </c>
       <c r="K39" t="n">
-        <v>16.91671158764589</v>
+        <v>16.91671158764586</v>
       </c>
       <c r="L39" t="n">
-        <v>22.74660638146534</v>
+        <v>22.74660638146531</v>
       </c>
       <c r="M39" t="n">
-        <v>26.54421675905974</v>
+        <v>26.5442167590597</v>
       </c>
       <c r="N39" t="n">
-        <v>27.24676319188998</v>
+        <v>27.24676319188994</v>
       </c>
       <c r="O39" t="n">
-        <v>24.92546523331684</v>
+        <v>24.92546523331681</v>
       </c>
       <c r="P39" t="n">
-        <v>20.00488331756869</v>
+        <v>20.00488331756866</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.37273471621386</v>
+        <v>13.37273471621384</v>
       </c>
       <c r="R39" t="n">
-        <v>6.504412886294788</v>
+        <v>6.504412886294778</v>
       </c>
       <c r="S39" t="n">
-        <v>1.945901990213224</v>
+        <v>1.945901990213221</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4222630292812168</v>
+        <v>0.4222630292812162</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006892214841369159</v>
+        <v>0.00689221484136915</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0878286612572288</v>
+        <v>0.08782866125722867</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7808766428142712</v>
+        <v>0.78087664281427</v>
       </c>
       <c r="I40" t="n">
-        <v>2.641247376717391</v>
+        <v>2.641247376717387</v>
       </c>
       <c r="J40" t="n">
-        <v>6.209486350886076</v>
+        <v>6.209486350886067</v>
       </c>
       <c r="K40" t="n">
-        <v>10.20409355333985</v>
+        <v>10.20409355333984</v>
       </c>
       <c r="L40" t="n">
-        <v>13.05772660182473</v>
+        <v>13.05772660182471</v>
       </c>
       <c r="M40" t="n">
-        <v>13.76754187325815</v>
+        <v>13.76754187325813</v>
       </c>
       <c r="N40" t="n">
-        <v>13.44018049948121</v>
+        <v>13.44018049948119</v>
       </c>
       <c r="O40" t="n">
-        <v>12.41418204752176</v>
+        <v>12.41418204752175</v>
       </c>
       <c r="P40" t="n">
-        <v>10.62247735787429</v>
+        <v>10.62247735787427</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.354452716730314</v>
+        <v>7.354452716730304</v>
       </c>
       <c r="R40" t="n">
-        <v>3.949095987075032</v>
+        <v>3.949095987075026</v>
       </c>
       <c r="S40" t="n">
-        <v>1.530614033000978</v>
+        <v>1.530614033000976</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3752679162808866</v>
+        <v>0.3752679162808861</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004790654250394303</v>
+        <v>0.004790654250394297</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1957989341869695</v>
+        <v>0.1957989341869692</v>
       </c>
       <c r="H41" t="n">
-        <v>2.005225834742302</v>
+        <v>2.005225834742299</v>
       </c>
       <c r="I41" t="n">
-        <v>7.548538410243149</v>
+        <v>7.548538410243139</v>
       </c>
       <c r="J41" t="n">
-        <v>16.61818979045132</v>
+        <v>16.6181897904513</v>
       </c>
       <c r="K41" t="n">
-        <v>24.90635867458574</v>
+        <v>24.90635867458571</v>
       </c>
       <c r="L41" t="n">
-        <v>30.89854030671022</v>
+        <v>30.89854030671017</v>
       </c>
       <c r="M41" t="n">
-        <v>34.38057960255774</v>
+        <v>34.38057960255769</v>
       </c>
       <c r="N41" t="n">
-        <v>34.93689332431646</v>
+        <v>34.93689332431642</v>
       </c>
       <c r="O41" t="n">
-        <v>32.98991767249478</v>
+        <v>32.98991767249474</v>
       </c>
       <c r="P41" t="n">
-        <v>28.15613148475397</v>
+        <v>28.15613148475393</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.14408215418312</v>
+        <v>21.14408215418309</v>
       </c>
       <c r="R41" t="n">
-        <v>12.29935479962223</v>
+        <v>12.29935479962222</v>
       </c>
       <c r="S41" t="n">
-        <v>4.461768212785572</v>
+        <v>4.461768212785566</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8571098344034596</v>
+        <v>0.8571098344034582</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01566391473495756</v>
+        <v>0.01566391473495754</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1047616655888112</v>
+        <v>0.104761665588811</v>
       </c>
       <c r="H42" t="n">
-        <v>1.011777138712992</v>
+        <v>1.011777138712991</v>
       </c>
       <c r="I42" t="n">
-        <v>3.606925766983192</v>
+        <v>3.606925766983187</v>
       </c>
       <c r="J42" t="n">
-        <v>9.897679993195535</v>
+        <v>9.897679993195521</v>
       </c>
       <c r="K42" t="n">
-        <v>16.91671158764589</v>
+        <v>16.91671158764586</v>
       </c>
       <c r="L42" t="n">
-        <v>22.74660638146534</v>
+        <v>22.74660638146531</v>
       </c>
       <c r="M42" t="n">
-        <v>26.54421675905974</v>
+        <v>26.5442167590597</v>
       </c>
       <c r="N42" t="n">
-        <v>27.24676319188998</v>
+        <v>27.24676319188994</v>
       </c>
       <c r="O42" t="n">
-        <v>24.92546523331684</v>
+        <v>24.92546523331681</v>
       </c>
       <c r="P42" t="n">
-        <v>20.00488331756869</v>
+        <v>20.00488331756866</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.37273471621386</v>
+        <v>13.37273471621384</v>
       </c>
       <c r="R42" t="n">
-        <v>6.504412886294788</v>
+        <v>6.504412886294778</v>
       </c>
       <c r="S42" t="n">
-        <v>1.945901990213224</v>
+        <v>1.945901990213221</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4222630292812168</v>
+        <v>0.4222630292812162</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006892214841369159</v>
+        <v>0.00689221484136915</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0878286612572288</v>
+        <v>0.08782866125722867</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7808766428142712</v>
+        <v>0.78087664281427</v>
       </c>
       <c r="I43" t="n">
-        <v>2.641247376717391</v>
+        <v>2.641247376717387</v>
       </c>
       <c r="J43" t="n">
-        <v>6.209486350886076</v>
+        <v>6.209486350886067</v>
       </c>
       <c r="K43" t="n">
-        <v>10.20409355333985</v>
+        <v>10.20409355333984</v>
       </c>
       <c r="L43" t="n">
-        <v>13.05772660182473</v>
+        <v>13.05772660182471</v>
       </c>
       <c r="M43" t="n">
-        <v>13.76754187325815</v>
+        <v>13.76754187325813</v>
       </c>
       <c r="N43" t="n">
-        <v>13.44018049948121</v>
+        <v>13.44018049948119</v>
       </c>
       <c r="O43" t="n">
-        <v>12.41418204752176</v>
+        <v>12.41418204752175</v>
       </c>
       <c r="P43" t="n">
-        <v>10.62247735787429</v>
+        <v>10.62247735787427</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.354452716730314</v>
+        <v>7.354452716730304</v>
       </c>
       <c r="R43" t="n">
-        <v>3.949095987075032</v>
+        <v>3.949095987075026</v>
       </c>
       <c r="S43" t="n">
-        <v>1.530614033000978</v>
+        <v>1.530614033000976</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3752679162808866</v>
+        <v>0.3752679162808861</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004790654250394303</v>
+        <v>0.004790654250394297</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1957989341869695</v>
+        <v>0.1957989341869692</v>
       </c>
       <c r="H44" t="n">
-        <v>2.005225834742302</v>
+        <v>2.005225834742299</v>
       </c>
       <c r="I44" t="n">
-        <v>7.548538410243149</v>
+        <v>7.548538410243139</v>
       </c>
       <c r="J44" t="n">
-        <v>16.61818979045132</v>
+        <v>16.6181897904513</v>
       </c>
       <c r="K44" t="n">
-        <v>24.90635867458574</v>
+        <v>24.90635867458571</v>
       </c>
       <c r="L44" t="n">
-        <v>30.89854030671022</v>
+        <v>30.89854030671017</v>
       </c>
       <c r="M44" t="n">
-        <v>34.38057960255774</v>
+        <v>34.38057960255769</v>
       </c>
       <c r="N44" t="n">
-        <v>34.93689332431646</v>
+        <v>34.93689332431642</v>
       </c>
       <c r="O44" t="n">
-        <v>32.98991767249478</v>
+        <v>32.98991767249474</v>
       </c>
       <c r="P44" t="n">
-        <v>28.15613148475397</v>
+        <v>28.15613148475393</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.14408215418312</v>
+        <v>21.14408215418309</v>
       </c>
       <c r="R44" t="n">
-        <v>12.29935479962223</v>
+        <v>12.29935479962222</v>
       </c>
       <c r="S44" t="n">
-        <v>4.461768212785572</v>
+        <v>4.461768212785566</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8571098344034596</v>
+        <v>0.8571098344034582</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01566391473495756</v>
+        <v>0.01566391473495754</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1047616655888112</v>
+        <v>0.104761665588811</v>
       </c>
       <c r="H45" t="n">
-        <v>1.011777138712992</v>
+        <v>1.011777138712991</v>
       </c>
       <c r="I45" t="n">
-        <v>3.606925766983192</v>
+        <v>3.606925766983187</v>
       </c>
       <c r="J45" t="n">
-        <v>9.897679993195535</v>
+        <v>9.897679993195521</v>
       </c>
       <c r="K45" t="n">
-        <v>16.91671158764589</v>
+        <v>16.91671158764586</v>
       </c>
       <c r="L45" t="n">
-        <v>22.74660638146534</v>
+        <v>22.74660638146531</v>
       </c>
       <c r="M45" t="n">
-        <v>26.54421675905974</v>
+        <v>26.5442167590597</v>
       </c>
       <c r="N45" t="n">
-        <v>27.24676319188998</v>
+        <v>27.24676319188994</v>
       </c>
       <c r="O45" t="n">
-        <v>24.92546523331684</v>
+        <v>24.92546523331681</v>
       </c>
       <c r="P45" t="n">
-        <v>20.00488331756869</v>
+        <v>20.00488331756866</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.37273471621386</v>
+        <v>13.37273471621384</v>
       </c>
       <c r="R45" t="n">
-        <v>6.504412886294788</v>
+        <v>6.504412886294778</v>
       </c>
       <c r="S45" t="n">
-        <v>1.945901990213224</v>
+        <v>1.945901990213221</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4222630292812168</v>
+        <v>0.4222630292812162</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006892214841369159</v>
+        <v>0.00689221484136915</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0878286612572288</v>
+        <v>0.08782866125722867</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7808766428142712</v>
+        <v>0.78087664281427</v>
       </c>
       <c r="I46" t="n">
-        <v>2.641247376717391</v>
+        <v>2.641247376717387</v>
       </c>
       <c r="J46" t="n">
-        <v>6.209486350886076</v>
+        <v>6.209486350886067</v>
       </c>
       <c r="K46" t="n">
-        <v>10.20409355333985</v>
+        <v>10.20409355333984</v>
       </c>
       <c r="L46" t="n">
-        <v>13.05772660182473</v>
+        <v>13.05772660182471</v>
       </c>
       <c r="M46" t="n">
-        <v>13.76754187325815</v>
+        <v>13.76754187325813</v>
       </c>
       <c r="N46" t="n">
-        <v>13.44018049948121</v>
+        <v>13.44018049948119</v>
       </c>
       <c r="O46" t="n">
-        <v>12.41418204752176</v>
+        <v>12.41418204752175</v>
       </c>
       <c r="P46" t="n">
-        <v>10.62247735787429</v>
+        <v>10.62247735787427</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.354452716730314</v>
+        <v>7.354452716730304</v>
       </c>
       <c r="R46" t="n">
-        <v>3.949095987075032</v>
+        <v>3.949095987075026</v>
       </c>
       <c r="S46" t="n">
-        <v>1.530614033000978</v>
+        <v>1.530614033000976</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3752679162808866</v>
+        <v>0.3752679162808861</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004790654250394303</v>
+        <v>0.004790654250394297</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35386,10 +35386,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="D11" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -35404,13 +35404,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="J11" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="K11" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.048371512789686</v>
+        <v>1.048371512789629</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35434,19 +35434,19 @@
         <v>0.8805623845909736</v>
       </c>
       <c r="S11" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="U11" t="n">
-        <v>3.407168619396084</v>
+        <v>2.388942856243888</v>
       </c>
       <c r="V11" t="n">
-        <v>3.407168619396084</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.38894285624383</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35623,10 +35623,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="D14" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -35641,13 +35641,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619395918</v>
       </c>
       <c r="J14" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="K14" t="n">
-        <v>3.407168619396543</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.048371512789664</v>
+        <v>1.048371512789686</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35668,22 +35668,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.8805623845910304</v>
       </c>
       <c r="S14" t="n">
-        <v>3.269505240834591</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="T14" t="n">
-        <v>3.407168619396084</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="V14" t="n">
-        <v>3.407168619396084</v>
+        <v>3.407168619396329</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.388942856243887</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35860,10 +35860,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>16.16585249092776</v>
+        <v>16.16585249092788</v>
       </c>
       <c r="D17" t="n">
-        <v>16.16585249092776</v>
+        <v>16.16585249092788</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -35878,10 +35878,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.786887257482135</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>16.16585249092776</v>
+        <v>12.97701578160382</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35890,40 +35890,40 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.071731582931001</v>
+        <v>2.071731582930852</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.084105086945272</v>
+        <v>1.084105086945158</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.901117082894132</v>
+        <v>1.901117082893961</v>
       </c>
       <c r="R17" t="n">
-        <v>3.976636826348965</v>
+        <v>3.976636826348852</v>
       </c>
       <c r="S17" t="n">
-        <v>16.16585249092776</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>16.16585249092776</v>
+        <v>16.16585249092788</v>
       </c>
       <c r="U17" t="n">
-        <v>10.86115234078598</v>
+        <v>5.671023816660565</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>16.16585249092788</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>16.16585249092788</v>
       </c>
       <c r="X17" t="n">
-        <v>0.5351416137307297</v>
+        <v>0.535141613730616</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -36097,10 +36097,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.642441716806161</v>
+        <v>20.45828849835789</v>
       </c>
       <c r="D20" t="n">
-        <v>23.23863305101732</v>
+        <v>7.422786269465632</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36115,22 +36115,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.70918885377921</v>
+        <v>8.70918885377904</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>23.23863305101621</v>
       </c>
       <c r="K20" t="n">
-        <v>2.54757430930594</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.994033179228097</v>
+        <v>2.99403317922787</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>5.066747550844525</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36139,28 +36139,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.823418679191207</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.89893842264587</v>
       </c>
       <c r="S20" t="n">
-        <v>23.23863305101732</v>
+        <v>23.23863305101621</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>23.23863305101621</v>
       </c>
       <c r="U20" t="n">
-        <v>18.01883649307037</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.23863305101732</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>23.23863305101732</v>
+        <v>14.88158671810453</v>
       </c>
       <c r="X20" t="n">
-        <v>1.457443210027805</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -36337,7 +36337,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>31.186268949858</v>
+        <v>22.71659083979296</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>21.31758352799869</v>
+        <v>31.18626894985789</v>
       </c>
       <c r="K23" t="n">
-        <v>11.08369305313192</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>5.964007306495887</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36376,25 +36376,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>3.720678434842341</v>
       </c>
       <c r="R23" t="n">
-        <v>5.796198178297118</v>
+        <v>5.796198178297232</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>31.18626894985789</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>31.186268949858</v>
+        <v>31.18626894985789</v>
       </c>
       <c r="V23" t="n">
-        <v>31.186268949858</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>26.81108068776666</v>
+        <v>26.81108068776678</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -36571,10 +36571,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>19.7022525428693</v>
+        <v>21.35554825400925</v>
       </c>
       <c r="D26" t="n">
-        <v>31.186268949858</v>
+        <v>1.306948697991061</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -36589,13 +36589,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.606448609430288</v>
+        <v>9.606448609430402</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>11.083693053132</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36604,37 +36604,37 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.81339220660783</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.903666438893538</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.720678434842284</v>
+        <v>3.720678434842341</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>5.796198178297232</v>
       </c>
       <c r="S26" t="n">
-        <v>31.186268949858</v>
+        <v>31.18626894985789</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>13.61056204269032</v>
       </c>
       <c r="V26" t="n">
-        <v>31.186268949858</v>
+        <v>31.18626894985789</v>
       </c>
       <c r="W26" t="n">
-        <v>26.81108068776666</v>
+        <v>26.81108068776678</v>
       </c>
       <c r="X26" t="n">
-        <v>2.354702965678882</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -36808,10 +36808,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>10.49460357779191</v>
+        <v>20.03463543503852</v>
       </c>
       <c r="D29" t="n">
-        <v>37.61550288143297</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -36826,52 +36826,52 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>10.03937243702126</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>11.51661688072272</v>
+        <v>11.51661688072284</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01979606552504265</v>
+        <v>4.324216762470087</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>6.396931134086742</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>3.336590266484393</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.153602262433083</v>
+        <v>4.153602262433196</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>6.229122005888087</v>
       </c>
       <c r="S29" t="n">
-        <v>38.2590495099471</v>
+        <v>38.25904950994958</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>38.2590495099471</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>36.02808399370616</v>
       </c>
       <c r="W29" t="n">
-        <v>27.24400451535746</v>
+        <v>27.24400451535763</v>
       </c>
       <c r="X29" t="n">
-        <v>2.787626793269681</v>
+        <v>2.787626793269851</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -37045,10 +37045,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>22.59109616971716</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>38.4181269695502</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -37063,13 +37063,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>10.84199652513837</v>
       </c>
       <c r="J32" t="n">
-        <v>35.7829352392892</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>12.31924096884001</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>7.199555222203855</v>
+        <v>7.199555222203912</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -37090,22 +37090,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>7.031746094005257</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.55254618709655</v>
       </c>
       <c r="T32" t="n">
-        <v>51.37171202863084</v>
+        <v>51.37171202863072</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>36.83070808182322</v>
+        <v>36.83070808182333</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>28.0466286034748</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -37282,10 +37282,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>22.59109616971716</v>
+        <v>22.59109616971728</v>
       </c>
       <c r="D35" t="n">
-        <v>9.864167750515264</v>
+        <v>38.41812696955031</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -37300,52 +37300,52 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.308431565321371</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>12.31924096884006</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>5.1268408505872</v>
+        <v>5.126840850587314</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>4.139214354601449</v>
+        <v>4.13921435460162</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4.956226350550423</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>7.031746094005257</v>
       </c>
       <c r="S35" t="n">
-        <v>51.37171202863084</v>
+        <v>51.37171202863072</v>
       </c>
       <c r="T35" t="n">
-        <v>51.37171202863084</v>
+        <v>14.60305043987124</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>36.83070808182322</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>28.0466286034748</v>
       </c>
       <c r="X35" t="n">
-        <v>3.590250881386908</v>
+        <v>3.590250881387021</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -37519,10 +37519,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>22.59109616971716</v>
       </c>
       <c r="D38" t="n">
-        <v>19.50753586419506</v>
+        <v>38.4181269695502</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>10.84199652513837</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>51.37171202863072</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37555,25 +37555,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>4.139214354601506</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>4.956226350550253</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>7.031746094005143</v>
       </c>
       <c r="S38" t="n">
-        <v>51.37171202863084</v>
+        <v>16.45351407013024</v>
       </c>
       <c r="T38" t="n">
-        <v>51.37171202863084</v>
+        <v>51.37171202863072</v>
       </c>
       <c r="U38" t="n">
-        <v>51.37171202863084</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37582,7 +37582,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>3.590250881386964</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -37756,10 +37756,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>21.81013906101617</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>37.63716986084921</v>
+        <v>34.36734354668545</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>10.06103941643732</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>38.61302815709915</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.431159716084437</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37801,25 +37801,25 @@
         <v>4.175269241849321</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6.250788985304212</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>29.94606530217405</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>38.61302815709912</v>
+        <v>38.61302815709915</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>36.04975097312229</v>
       </c>
       <c r="W41" t="n">
-        <v>27.2656714947737</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>2.809293772685976</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -37993,10 +37993,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>16.87808974601757</v>
+        <v>21.37721523342537</v>
       </c>
       <c r="D44" t="n">
-        <v>31.5402475970096</v>
+        <v>0.517573365110934</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.62811558884647</v>
       </c>
       <c r="J44" t="n">
-        <v>8.546959201574737</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,37 +38023,37 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>3.912959914295357</v>
       </c>
       <c r="N44" t="n">
-        <v>3.82866780073789</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2.925333418309663</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.742345414258448</v>
+        <v>3.742345414258466</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.817865157713351</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>31.54024759701083</v>
       </c>
       <c r="T44" t="n">
-        <v>31.5402475970096</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.5402475970096</v>
+        <v>21.32240159746493</v>
       </c>
       <c r="V44" t="n">
-        <v>31.5402475970096</v>
+        <v>31.54024759701083</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>26.8327476671829</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
